--- a/Plan/py/excel_file.xlsx
+++ b/Plan/py/excel_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Billet_Casting\Plan\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A5822D-02A3-400B-8B3D-BE5A21E0C44A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F2414-FBA5-46D2-89E9-F433CEF713C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6685DC73-02EB-42C7-9FF3-CE584FEA71CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Casting" sheetId="10" r:id="rId1"/>
@@ -494,6 +494,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="#&quot; inch&quot;"/>
+  </numFmts>
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -1293,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1473,252 +1476,252 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,21 +1761,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1785,8 +1782,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1827,12 +1824,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1901,6 +1892,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2418,8 +2415,8 @@
   </sheetPr>
   <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2435,45 +2432,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
-      <c r="R1" s="194"/>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
+      <c r="O1" s="189"/>
+      <c r="P1" s="189"/>
+      <c r="Q1" s="189"/>
+      <c r="R1" s="190"/>
     </row>
     <row r="2" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="197" t="s">
+      <c r="I2" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
       <c r="N2" s="13"/>
       <c r="O2" s="12" t="s">
         <v>17</v>
@@ -2483,103 +2480,103 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="189"/>
+      <c r="B3" s="185"/>
       <c r="C3" s="152"/>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="131" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="152"/>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="131" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="152"/>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="131" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="152"/>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="131" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="152"/>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="189"/>
+      <c r="M3" s="185"/>
       <c r="N3" s="152"/>
-      <c r="O3" s="199" t="s">
+      <c r="O3" s="195" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="200"/>
-      <c r="Q3" s="199" t="s">
+      <c r="P3" s="196"/>
+      <c r="Q3" s="195" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="201"/>
+      <c r="R3" s="197"/>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A4" s="182">
+      <c r="A4" s="180">
         <f>input!C1</f>
         <v>0</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="185">
+      <c r="B4" s="181"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="206">
         <f>input!C2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187">
+      <c r="E4" s="207"/>
+      <c r="F4" s="183">
         <f>input!C3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="188"/>
-      <c r="H4" s="190">
+      <c r="G4" s="184"/>
+      <c r="H4" s="186">
         <f>input!C4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="190">
+      <c r="I4" s="187"/>
+      <c r="J4" s="186">
         <f>input!C5</f>
         <v>0</v>
       </c>
-      <c r="K4" s="191"/>
-      <c r="L4" s="122">
+      <c r="K4" s="187"/>
+      <c r="L4" s="137">
         <f>input!C6</f>
         <v>0</v>
       </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="97">
+      <c r="M4" s="175"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="96">
         <f>input!C7</f>
         <v>0</v>
       </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="111">
+      <c r="P4" s="97"/>
+      <c r="Q4" s="126">
         <f>input!C8</f>
         <v>0</v>
       </c>
-      <c r="R4" s="178"/>
+      <c r="R4" s="176"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A5" s="179" t="s">
+      <c r="A5" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
+      <c r="B5" s="178"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="181" t="s">
+      <c r="I5" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
       <c r="N5" s="9"/>
       <c r="O5" s="5" t="s">
         <v>35</v>
@@ -2592,61 +2589,61 @@
       <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="131" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="152"/>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="131" t="s">
         <v>85</v>
       </c>
       <c r="E6" s="152"/>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="131" t="s">
         <v>96</v>
       </c>
       <c r="G6" s="152"/>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="131" t="s">
         <v>88</v>
       </c>
       <c r="I6" s="152"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="131" t="s">
         <v>89</v>
       </c>
       <c r="K6" s="152"/>
-      <c r="L6" s="116" t="s">
+      <c r="L6" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="189"/>
+      <c r="M6" s="185"/>
       <c r="N6" s="152"/>
-      <c r="O6" s="116" t="s">
+      <c r="O6" s="131" t="s">
         <v>87</v>
       </c>
       <c r="P6" s="152"/>
-      <c r="Q6" s="116" t="s">
+      <c r="Q6" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="119"/>
+      <c r="R6" s="134"/>
     </row>
     <row r="7" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="177"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="167"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="165"/>
     </row>
     <row r="8" spans="1:20" ht="18" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -2659,13 +2656,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="168" t="s">
+      <c r="I8" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
       <c r="N8" s="23"/>
       <c r="O8" s="12" t="s">
         <v>17</v>
@@ -2676,79 +2673,79 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="162" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="162"/>
+      <c r="D9" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="171" t="s">
+      <c r="E9" s="149"/>
+      <c r="F9" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171" t="s">
+      <c r="G9" s="162"/>
+      <c r="H9" s="162" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171" t="s">
+      <c r="M9" s="162"/>
+      <c r="N9" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171" t="s">
-        <v>116</v>
-      </c>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171" t="s">
-        <v>117</v>
-      </c>
-      <c r="O9" s="171"/>
+      <c r="O9" s="162"/>
       <c r="P9" s="61" t="s">
         <v>119</v>
       </c>
       <c r="Q9" s="62"/>
-      <c r="R9" s="175" t="s">
+      <c r="R9" s="173" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A10" s="170"/>
-      <c r="B10" s="172">
+      <c r="A10" s="168"/>
+      <c r="B10" s="169">
+        <f>input!C13</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="170"/>
+      <c r="D10" s="163">
         <f>input!C9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="172"/>
-      <c r="D10" s="164">
+      <c r="E10" s="164"/>
+      <c r="F10" s="163">
         <f>input!C10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164">
+      <c r="G10" s="164"/>
+      <c r="H10" s="163">
+        <f>input!C15</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="164"/>
+      <c r="J10" s="163">
+        <f>input!C14</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="164"/>
+      <c r="L10" s="163">
         <f>input!C11</f>
         <v>0</v>
       </c>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164">
+      <c r="M10" s="164"/>
+      <c r="N10" s="163">
         <f>input!C12</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164">
-        <f>input!C13</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164">
-        <f>input!C14</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164">
-        <f>input!C15</f>
         <v>0</v>
       </c>
       <c r="O10" s="164"/>
@@ -2757,39 +2754,39 @@
         <v>0</v>
       </c>
       <c r="Q10" s="64"/>
-      <c r="R10" s="176"/>
+      <c r="R10" s="174"/>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="166"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
       <c r="H11" s="162"/>
-      <c r="I11" s="163"/>
+      <c r="I11" s="162"/>
       <c r="J11" s="162"/>
-      <c r="K11" s="163"/>
+      <c r="K11" s="162"/>
       <c r="L11" s="162"/>
-      <c r="M11" s="163"/>
+      <c r="M11" s="162"/>
       <c r="N11" s="162"/>
-      <c r="O11" s="163"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
       <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="116"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="152"/>
-      <c r="D12" s="116"/>
+      <c r="D12" s="131"/>
       <c r="E12" s="152"/>
-      <c r="F12" s="116"/>
+      <c r="F12" s="131"/>
       <c r="G12" s="152"/>
       <c r="H12" s="42"/>
       <c r="I12" s="43"/>
@@ -2799,19 +2796,19 @@
       <c r="M12" s="43"/>
       <c r="N12" s="42"/>
       <c r="O12" s="43"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
       <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="116"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="152"/>
-      <c r="D13" s="116"/>
+      <c r="D13" s="131"/>
       <c r="E13" s="152"/>
-      <c r="F13" s="116"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="152"/>
       <c r="H13" s="40"/>
       <c r="I13" s="41"/>
@@ -2821,19 +2818,19 @@
       <c r="M13" s="41"/>
       <c r="N13" s="40"/>
       <c r="O13" s="41"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
       <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="116"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="152"/>
-      <c r="D14" s="116"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="152"/>
-      <c r="F14" s="116"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="152"/>
       <c r="H14" s="42"/>
       <c r="I14" s="43"/>
@@ -2843,30 +2840,30 @@
       <c r="M14" s="43"/>
       <c r="N14" s="42"/>
       <c r="O14" s="43"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
       <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="153"/>
       <c r="G15" s="154"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="123"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
       <c r="R15" s="60"/>
     </row>
     <row r="16" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
@@ -2899,27 +2896,27 @@
       <c r="A17" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="161" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="161"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="65" t="s">
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78" t="s">
+      <c r="J17" s="147"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="N17" s="78"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="136"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
       <c r="Q17" s="149"/>
       <c r="R17" s="150"/>
       <c r="U17" s="32"/>
@@ -2950,21 +2947,21 @@
         <v>70</v>
       </c>
       <c r="F18" s="156"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="67" t="s">
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="67"/>
+      <c r="J18" s="66"/>
       <c r="K18" s="156"/>
       <c r="L18" s="156"/>
-      <c r="M18" s="95" t="s">
+      <c r="M18" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="95"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="148"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="117"/>
       <c r="R18" s="151"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
@@ -2994,13 +2991,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="137" t="s">
+      <c r="I19" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="148"/>
       <c r="N19" s="31"/>
       <c r="O19" s="12" t="s">
         <v>17</v>
@@ -3026,120 +3023,120 @@
       <c r="AJ19" s="32"/>
     </row>
     <row r="20" spans="1:36" ht="27" customHeight="1">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="76" t="s">
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="78" t="s">
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="79"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="78"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
       <c r="AJ20" s="32"/>
     </row>
     <row r="21" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="77" t="s">
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="95" t="s">
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="96"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="74"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
     </row>
     <row r="22" spans="1:36" ht="27" customHeight="1">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="131" t="s">
+      <c r="B22" s="115"/>
+      <c r="C22" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="93" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93" t="s">
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93" t="s">
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93" t="s">
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="50"/>
@@ -3162,24 +3159,24 @@
       <c r="AJ22" s="32"/>
     </row>
     <row r="23" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="147"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="102"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="101"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
@@ -3198,26 +3195,26 @@
       <c r="AJ23" s="32"/>
     </row>
     <row r="24" spans="1:36" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="139"/>
-      <c r="Q24" s="139"/>
-      <c r="R24" s="140"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="109"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -3239,14 +3236,14 @@
       <c r="A25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="143" t="s">
+      <c r="C25" s="111"/>
+      <c r="D25" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="144"/>
+      <c r="E25" s="113"/>
       <c r="F25" s="48" t="s">
         <v>42</v>
       </c>
@@ -3254,20 +3251,20 @@
       <c r="H25" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="100"/>
+      <c r="I25" s="99"/>
       <c r="J25" s="49"/>
       <c r="K25" s="48" t="s">
         <v>38</v>
       </c>
       <c r="L25" s="55"/>
-      <c r="M25" s="80" t="s">
+      <c r="M25" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="82"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="81"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -3300,12 +3297,12 @@
       <c r="J26" s="43"/>
       <c r="K26" s="38"/>
       <c r="L26" s="39"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="85"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="84"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -3338,12 +3335,12 @@
       <c r="J27" s="43"/>
       <c r="K27" s="38"/>
       <c r="L27" s="39"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-      <c r="R27" s="85"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="84"/>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -3376,12 +3373,12 @@
       <c r="J28" s="43"/>
       <c r="K28" s="38"/>
       <c r="L28" s="39"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="85"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="84"/>
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
@@ -3414,12 +3411,12 @@
       <c r="J29" s="43"/>
       <c r="K29" s="38"/>
       <c r="L29" s="39"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="85"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="84"/>
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
@@ -3452,12 +3449,12 @@
       <c r="J30" s="43"/>
       <c r="K30" s="38"/>
       <c r="L30" s="39"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="85"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="84"/>
       <c r="U30" s="32"/>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
@@ -3490,12 +3487,12 @@
       <c r="J31" s="43"/>
       <c r="K31" s="38"/>
       <c r="L31" s="39"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="85"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="84"/>
     </row>
     <row r="32" spans="1:36" ht="27" customHeight="1">
       <c r="A32" s="27">
@@ -3512,12 +3509,12 @@
       <c r="J32" s="43"/>
       <c r="K32" s="38"/>
       <c r="L32" s="39"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="85"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83"/>
+      <c r="R32" s="84"/>
     </row>
     <row r="33" spans="1:18" ht="27" customHeight="1">
       <c r="A33" s="27">
@@ -3534,12 +3531,12 @@
       <c r="J33" s="43"/>
       <c r="K33" s="38"/>
       <c r="L33" s="39"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="85"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="84"/>
     </row>
     <row r="34" spans="1:18" ht="27" customHeight="1">
       <c r="A34" s="27">
@@ -3556,12 +3553,12 @@
       <c r="J34" s="43"/>
       <c r="K34" s="38"/>
       <c r="L34" s="39"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="85"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="84"/>
     </row>
     <row r="35" spans="1:18" ht="27" customHeight="1">
       <c r="A35" s="27">
@@ -3578,12 +3575,12 @@
       <c r="J35" s="43"/>
       <c r="K35" s="38"/>
       <c r="L35" s="39"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="85"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="84"/>
     </row>
     <row r="36" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="27">
@@ -3600,12 +3597,12 @@
       <c r="J36" s="43"/>
       <c r="K36" s="38"/>
       <c r="L36" s="39"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="88"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="87"/>
     </row>
     <row r="37" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="27">
@@ -3622,14 +3619,14 @@
       <c r="J37" s="43"/>
       <c r="K37" s="38"/>
       <c r="L37" s="39"/>
-      <c r="M37" s="90" t="s">
+      <c r="M37" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="92"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="91"/>
     </row>
     <row r="38" spans="1:18" ht="27" customHeight="1">
       <c r="A38" s="27">
@@ -3646,7 +3643,7 @@
       <c r="J38" s="43"/>
       <c r="K38" s="38"/>
       <c r="L38" s="39"/>
-      <c r="M38" s="89" t="s">
+      <c r="M38" s="88" t="s">
         <v>82</v>
       </c>
       <c r="N38" s="49"/>
@@ -3751,17 +3748,17 @@
       <c r="A43" s="33">
         <v>18</v>
       </c>
-      <c r="B43" s="122"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="111"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="128"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="143"/>
       <c r="M43" s="46"/>
       <c r="N43" s="47"/>
       <c r="O43" s="54"/>
@@ -3770,60 +3767,60 @@
       <c r="R43" s="57"/>
     </row>
     <row r="44" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="126"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="140"/>
+      <c r="N44" s="140"/>
+      <c r="O44" s="140"/>
+      <c r="P44" s="140"/>
+      <c r="Q44" s="140"/>
+      <c r="R44" s="141"/>
     </row>
     <row r="45" spans="1:18" ht="17.25">
-      <c r="A45" s="129" t="s">
+      <c r="A45" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="112" t="s">
+      <c r="B45" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="116" t="s">
+      <c r="C45" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="119" t="s">
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
+      <c r="O45" s="133"/>
+      <c r="P45" s="133"/>
+      <c r="Q45" s="133"/>
+      <c r="R45" s="134" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17.25">
-      <c r="A46" s="130"/>
-      <c r="B46" s="106"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="121"/>
       <c r="C46" s="40"/>
       <c r="D46" s="26" t="s">
         <v>0</v>
@@ -3861,17 +3858,17 @@
       <c r="O46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P46" s="121" t="s">
+      <c r="P46" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="120"/>
+      <c r="Q46" s="136"/>
+      <c r="R46" s="135"/>
     </row>
     <row r="47" spans="1:18" ht="27" customHeight="1">
-      <c r="A47" s="204" t="s">
+      <c r="A47" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="127" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -3891,11 +3888,11 @@
       <c r="O47" s="26"/>
       <c r="P47" s="63"/>
       <c r="Q47" s="64"/>
-      <c r="R47" s="202"/>
+      <c r="R47" s="198"/>
     </row>
     <row r="48" spans="1:18" ht="27" customHeight="1">
-      <c r="A48" s="205"/>
-      <c r="B48" s="106"/>
+      <c r="A48" s="201"/>
+      <c r="B48" s="121"/>
       <c r="C48" s="22" t="s">
         <v>24</v>
       </c>
@@ -3911,9 +3908,9 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="206"/>
-      <c r="Q48" s="207"/>
-      <c r="R48" s="203"/>
+      <c r="P48" s="202"/>
+      <c r="Q48" s="203"/>
+      <c r="R48" s="199"/>
     </row>
     <row r="49" spans="1:18" ht="27" customHeight="1">
       <c r="A49" s="20" t="s">
@@ -3937,8 +3934,8 @@
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="206"/>
-      <c r="Q49" s="207"/>
+      <c r="P49" s="202"/>
+      <c r="Q49" s="203"/>
       <c r="R49" s="35"/>
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1">
@@ -3963,8 +3960,8 @@
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="206"/>
-      <c r="Q50" s="207"/>
+      <c r="P50" s="202"/>
+      <c r="Q50" s="203"/>
       <c r="R50" s="35"/>
     </row>
     <row r="51" spans="1:18" ht="27" customHeight="1">
@@ -3989,12 +3986,12 @@
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="206"/>
-      <c r="Q51" s="207"/>
+      <c r="P51" s="202"/>
+      <c r="Q51" s="203"/>
       <c r="R51" s="35"/>
     </row>
     <row r="52" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="144" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -4015,12 +4012,12 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
       <c r="O52" s="30"/>
-      <c r="P52" s="206"/>
-      <c r="Q52" s="207"/>
-      <c r="R52" s="202"/>
+      <c r="P52" s="202"/>
+      <c r="Q52" s="203"/>
+      <c r="R52" s="198"/>
     </row>
     <row r="53" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A53" s="129"/>
+      <c r="A53" s="144"/>
       <c r="B53" s="21" t="s">
         <v>95</v>
       </c>
@@ -4039,15 +4036,15 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
-      <c r="P53" s="206"/>
-      <c r="Q53" s="207"/>
-      <c r="R53" s="203"/>
+      <c r="P53" s="202"/>
+      <c r="Q53" s="203"/>
+      <c r="R53" s="199"/>
     </row>
     <row r="54" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A54" s="129" t="s">
+      <c r="A54" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="112" t="s">
+      <c r="B54" s="127" t="s">
         <v>92</v>
       </c>
       <c r="C54" s="34" t="s">
@@ -4065,13 +4062,13 @@
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
-      <c r="P54" s="206"/>
-      <c r="Q54" s="207"/>
-      <c r="R54" s="202"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="203"/>
+      <c r="R54" s="198"/>
     </row>
     <row r="55" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A55" s="129"/>
-      <c r="B55" s="112"/>
+      <c r="A55" s="144"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="34" t="s">
         <v>24</v>
       </c>
@@ -4087,15 +4084,15 @@
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
-      <c r="P55" s="206"/>
-      <c r="Q55" s="207"/>
-      <c r="R55" s="203"/>
+      <c r="P55" s="202"/>
+      <c r="Q55" s="203"/>
+      <c r="R55" s="199"/>
     </row>
     <row r="56" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A56" s="129" t="s">
+      <c r="A56" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="112" t="s">
+      <c r="B56" s="127" t="s">
         <v>93</v>
       </c>
       <c r="C56" s="34">
@@ -4113,13 +4110,13 @@
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
       <c r="O56" s="30"/>
-      <c r="P56" s="206"/>
-      <c r="Q56" s="207"/>
-      <c r="R56" s="202"/>
+      <c r="P56" s="202"/>
+      <c r="Q56" s="203"/>
+      <c r="R56" s="198"/>
     </row>
     <row r="57" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A57" s="129"/>
-      <c r="B57" s="112"/>
+      <c r="A57" s="144"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="34">
         <v>600</v>
       </c>
@@ -4135,15 +4132,15 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
       <c r="O57" s="30"/>
-      <c r="P57" s="206"/>
-      <c r="Q57" s="207"/>
-      <c r="R57" s="203"/>
+      <c r="P57" s="202"/>
+      <c r="Q57" s="203"/>
+      <c r="R57" s="199"/>
     </row>
     <row r="58" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="127" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="34" t="s">
@@ -4161,13 +4158,13 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="206"/>
-      <c r="Q58" s="207"/>
-      <c r="R58" s="202"/>
+      <c r="P58" s="202"/>
+      <c r="Q58" s="203"/>
+      <c r="R58" s="198"/>
     </row>
     <row r="59" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A59" s="129"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="144"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="34" t="s">
         <v>52</v>
       </c>
@@ -4183,16 +4180,16 @@
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
-      <c r="P59" s="206"/>
-      <c r="Q59" s="207"/>
-      <c r="R59" s="203"/>
+      <c r="P59" s="202"/>
+      <c r="Q59" s="203"/>
+      <c r="R59" s="199"/>
     </row>
     <row r="60" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A60" s="208" t="s">
+      <c r="A60" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="172"/>
-      <c r="C60" s="209"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="205"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4205,41 +4202,41 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="206"/>
-      <c r="Q60" s="207"/>
+      <c r="P60" s="202"/>
+      <c r="Q60" s="203"/>
       <c r="R60" s="25"/>
     </row>
     <row r="61" spans="1:18" ht="21.95" customHeight="1">
-      <c r="A61" s="113" t="s">
+      <c r="A61" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="114"/>
-      <c r="J61" s="114"/>
-      <c r="K61" s="114"/>
-      <c r="L61" s="114"/>
-      <c r="M61" s="114"/>
-      <c r="N61" s="114"/>
-      <c r="O61" s="114"/>
-      <c r="P61" s="114"/>
-      <c r="Q61" s="114"/>
-      <c r="R61" s="115"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="129"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+      <c r="R61" s="130"/>
     </row>
     <row r="62" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A62" s="109" t="s">
+      <c r="A62" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="110"/>
-      <c r="C62" s="112" t="s">
+      <c r="B62" s="125"/>
+      <c r="C62" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="106"/>
+      <c r="D62" s="121"/>
       <c r="E62" s="40">
         <v>1</v>
       </c>
@@ -4248,121 +4245,121 @@
         <v>2</v>
       </c>
       <c r="H62" s="41"/>
-      <c r="I62" s="106">
+      <c r="I62" s="121">
         <v>3</v>
       </c>
-      <c r="J62" s="106"/>
-      <c r="K62" s="99">
+      <c r="J62" s="121"/>
+      <c r="K62" s="98">
         <v>4</v>
       </c>
       <c r="L62" s="41"/>
-      <c r="M62" s="106">
+      <c r="M62" s="121">
         <v>5</v>
       </c>
-      <c r="N62" s="106"/>
-      <c r="O62" s="106">
+      <c r="N62" s="121"/>
+      <c r="O62" s="121">
         <v>6</v>
       </c>
-      <c r="P62" s="106"/>
-      <c r="Q62" s="106" t="s">
+      <c r="P62" s="121"/>
+      <c r="Q62" s="121" t="s">
         <v>55</v>
       </c>
       <c r="R62" s="59"/>
     </row>
     <row r="63" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="110"/>
-      <c r="C63" s="112" t="s">
+      <c r="B63" s="125"/>
+      <c r="C63" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="106"/>
+      <c r="D63" s="121"/>
       <c r="E63" s="42"/>
       <c r="F63" s="43"/>
       <c r="G63" s="42"/>
       <c r="H63" s="43"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
       <c r="K63" s="52"/>
       <c r="L63" s="43"/>
-      <c r="M63" s="106"/>
-      <c r="N63" s="106"/>
-      <c r="O63" s="106"/>
-      <c r="P63" s="106"/>
-      <c r="Q63" s="106"/>
+      <c r="M63" s="121"/>
+      <c r="N63" s="121"/>
+      <c r="O63" s="121"/>
+      <c r="P63" s="121"/>
+      <c r="Q63" s="121"/>
       <c r="R63" s="59"/>
     </row>
     <row r="64" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A64" s="109" t="s">
+      <c r="A64" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="110"/>
-      <c r="C64" s="106" t="s">
+      <c r="B64" s="125"/>
+      <c r="C64" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="106"/>
+      <c r="D64" s="121"/>
       <c r="E64" s="42"/>
       <c r="F64" s="43"/>
       <c r="G64" s="42"/>
       <c r="H64" s="43"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
       <c r="K64" s="52"/>
       <c r="L64" s="43"/>
-      <c r="M64" s="106"/>
-      <c r="N64" s="106"/>
-      <c r="O64" s="106"/>
-      <c r="P64" s="106"/>
-      <c r="Q64" s="106"/>
+      <c r="M64" s="121"/>
+      <c r="N64" s="121"/>
+      <c r="O64" s="121"/>
+      <c r="P64" s="121"/>
+      <c r="Q64" s="121"/>
       <c r="R64" s="59"/>
     </row>
     <row r="65" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A65" s="107" t="s">
+      <c r="A65" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="108"/>
-      <c r="C65" s="106" t="s">
+      <c r="B65" s="123"/>
+      <c r="C65" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="106"/>
+      <c r="D65" s="121"/>
       <c r="E65" s="42"/>
       <c r="F65" s="43"/>
       <c r="G65" s="42"/>
       <c r="H65" s="43"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
       <c r="K65" s="52"/>
       <c r="L65" s="43"/>
-      <c r="M65" s="106"/>
-      <c r="N65" s="106"/>
-      <c r="O65" s="106"/>
-      <c r="P65" s="106"/>
-      <c r="Q65" s="106"/>
+      <c r="M65" s="121"/>
+      <c r="N65" s="121"/>
+      <c r="O65" s="121"/>
+      <c r="P65" s="121"/>
+      <c r="Q65" s="121"/>
       <c r="R65" s="59"/>
     </row>
     <row r="66" spans="1:18" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A66" s="103" t="s">
+      <c r="A66" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="105" t="s">
+      <c r="B66" s="119"/>
+      <c r="C66" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="105"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="111"/>
-      <c r="L66" s="98"/>
-      <c r="M66" s="94"/>
-      <c r="N66" s="94"/>
-      <c r="O66" s="94"/>
-      <c r="P66" s="94"/>
-      <c r="Q66" s="94"/>
+      <c r="D66" s="120"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="97"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
       <c r="R66" s="60"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1">
@@ -5134,9 +5131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822DE0DA-CE07-4E9A-9B9B-F80CAAB373AD}">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Plan/py/excel_file.xlsx
+++ b/Plan/py/excel_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Billet_Casting\Plan\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724F2414-FBA5-46D2-89E9-F433CEF713C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D70870-9B88-45FE-BCC2-F62DCAB36386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6685DC73-02EB-42C7-9FF3-CE584FEA71CB}"/>
   </bookViews>
@@ -495,7 +495,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#&quot; inch&quot;"/>
+    <numFmt numFmtId="164" formatCode="#&quot; inch&quot;"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1399,23 +1399,479 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1427,477 +1883,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2416,7 +2416,7 @@
   <dimension ref="A1:AJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2432,45 +2432,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
-      <c r="O1" s="189"/>
-      <c r="P1" s="189"/>
-      <c r="Q1" s="189"/>
-      <c r="R1" s="190"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="192"/>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="193" t="s">
+      <c r="I2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
       <c r="N2" s="13"/>
       <c r="O2" s="12" t="s">
         <v>17</v>
@@ -2480,103 +2480,103 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="131" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="131" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="131" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="152"/>
-      <c r="J3" s="131" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="152"/>
-      <c r="L3" s="131" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="185"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="195" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="196"/>
-      <c r="Q3" s="195" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="197"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A4" s="180">
+      <c r="A4" s="71">
         <f>input!C1</f>
         <v>0</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="206">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74">
         <f>input!C2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="207"/>
-      <c r="F4" s="183">
+      <c r="E4" s="75"/>
+      <c r="F4" s="78">
         <f>input!C3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="184"/>
-      <c r="H4" s="186">
+      <c r="G4" s="79"/>
+      <c r="H4" s="83">
         <f>input!C4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="187"/>
-      <c r="J4" s="186">
+      <c r="I4" s="84"/>
+      <c r="J4" s="83">
         <f>input!C5</f>
         <v>0</v>
       </c>
-      <c r="K4" s="187"/>
-      <c r="L4" s="137">
+      <c r="K4" s="84"/>
+      <c r="L4" s="80">
         <f>input!C6</f>
         <v>0</v>
       </c>
-      <c r="M4" s="175"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="96">
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="76">
         <f>input!C7</f>
         <v>0</v>
       </c>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="126">
+      <c r="P4" s="77"/>
+      <c r="Q4" s="65">
         <f>input!C8</f>
         <v>0</v>
       </c>
-      <c r="R4" s="176"/>
+      <c r="R4" s="66"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="178"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="179" t="s">
+      <c r="I5" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
       <c r="N5" s="9"/>
       <c r="O5" s="5" t="s">
         <v>35</v>
@@ -2589,61 +2589,61 @@
       <c r="A6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="131" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="131" t="s">
+      <c r="E6" s="60"/>
+      <c r="F6" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="152"/>
-      <c r="H6" s="131" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="152"/>
-      <c r="J6" s="131" t="s">
+      <c r="I6" s="60"/>
+      <c r="J6" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="152"/>
-      <c r="L6" s="131" t="s">
+      <c r="K6" s="60"/>
+      <c r="L6" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="185"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="131" t="s">
+      <c r="M6" s="59"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="152"/>
-      <c r="Q6" s="131" t="s">
+      <c r="P6" s="60"/>
+      <c r="Q6" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="134"/>
+      <c r="R6" s="70"/>
     </row>
     <row r="7" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="165"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="85"/>
     </row>
     <row r="8" spans="1:20" ht="18" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -2656,13 +2656,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="166" t="s">
+      <c r="I8" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="23"/>
       <c r="O8" s="12" t="s">
         <v>17</v>
@@ -2673,217 +2673,217 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="162"/>
-      <c r="D9" s="149" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="162" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162" t="s">
+      <c r="G9" s="89"/>
+      <c r="H9" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162" t="s">
+      <c r="I9" s="89"/>
+      <c r="J9" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162" t="s">
+      <c r="K9" s="89"/>
+      <c r="L9" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162" t="s">
+      <c r="M9" s="89"/>
+      <c r="N9" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="162"/>
-      <c r="P9" s="61" t="s">
+      <c r="O9" s="89"/>
+      <c r="P9" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="173" t="s">
+      <c r="Q9" s="197"/>
+      <c r="R9" s="94" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A10" s="168"/>
-      <c r="B10" s="169">
+      <c r="A10" s="88"/>
+      <c r="B10" s="91">
         <f>input!C13</f>
         <v>0</v>
       </c>
-      <c r="C10" s="170"/>
-      <c r="D10" s="163">
+      <c r="C10" s="50"/>
+      <c r="D10" s="98">
         <f>input!C9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="163">
+      <c r="E10" s="99"/>
+      <c r="F10" s="98">
         <f>input!C10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="164"/>
-      <c r="H10" s="163">
+      <c r="G10" s="99"/>
+      <c r="H10" s="98">
         <f>input!C15</f>
         <v>0</v>
       </c>
-      <c r="I10" s="164"/>
-      <c r="J10" s="163">
+      <c r="I10" s="99"/>
+      <c r="J10" s="98">
         <f>input!C14</f>
         <v>0</v>
       </c>
-      <c r="K10" s="164"/>
-      <c r="L10" s="163">
+      <c r="K10" s="99"/>
+      <c r="L10" s="98">
         <f>input!C11</f>
         <v>0</v>
       </c>
-      <c r="M10" s="164"/>
-      <c r="N10" s="163">
+      <c r="M10" s="99"/>
+      <c r="N10" s="98">
         <f>input!C12</f>
         <v>0</v>
       </c>
-      <c r="O10" s="164"/>
-      <c r="P10" s="63">
+      <c r="O10" s="99"/>
+      <c r="P10" s="45">
         <f>input!C16</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="174"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="95"/>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="58"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="197"/>
+      <c r="R11" s="195"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="59"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="139"/>
+      <c r="R12" s="135"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="59"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="135"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="59"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="135"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="60"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="145"/>
     </row>
     <row r="16" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="159" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
       <c r="N16" s="12" t="s">
         <v>38</v>
       </c>
@@ -2893,32 +2893,32 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="27" customHeight="1">
-      <c r="A17" s="160" t="s">
+      <c r="A17" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="161" t="s">
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="161"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="147" t="s">
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="147"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77" t="s">
+      <c r="J17" s="121"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="N17" s="77"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="150"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="102"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
@@ -2937,32 +2937,32 @@
       <c r="AJ17" s="32"/>
     </row>
     <row r="18" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="109" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156" t="s">
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="156"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="66" t="s">
+      <c r="F18" s="110"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="94" t="s">
+      <c r="J18" s="108"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="N18" s="94"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="151"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="104"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
@@ -2991,13 +2991,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="148" t="s">
+      <c r="I19" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="31"/>
       <c r="O19" s="12" t="s">
         <v>17</v>
@@ -3023,124 +3023,124 @@
       <c r="AJ19" s="32"/>
     </row>
     <row r="20" spans="1:36" ht="27" customHeight="1">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70" t="s">
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="75" t="s">
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="187"/>
+      <c r="J20" s="187"/>
+      <c r="K20" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="77" t="s">
+      <c r="L20" s="192"/>
+      <c r="M20" s="192"/>
+      <c r="N20" s="192"/>
+      <c r="O20" s="192"/>
+      <c r="P20" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="78"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-      <c r="AF20" s="68"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="194"/>
+      <c r="U20" s="190"/>
+      <c r="V20" s="190"/>
+      <c r="W20" s="191"/>
+      <c r="X20" s="190"/>
+      <c r="Y20" s="190"/>
+      <c r="Z20" s="190"/>
+      <c r="AA20" s="170"/>
+      <c r="AB20" s="170"/>
+      <c r="AC20" s="170"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
       <c r="AJ20" s="32"/>
     </row>
     <row r="21" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72" t="s">
+      <c r="B21" s="189"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="76" t="s">
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="193" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="94" t="s">
+      <c r="L21" s="193"/>
+      <c r="M21" s="193"/>
+      <c r="N21" s="193"/>
+      <c r="O21" s="193"/>
+      <c r="P21" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-      <c r="AF21" s="68"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="184"/>
+      <c r="U21" s="190"/>
+      <c r="V21" s="190"/>
+      <c r="W21" s="191"/>
+      <c r="X21" s="190"/>
+      <c r="Y21" s="190"/>
+      <c r="Z21" s="190"/>
+      <c r="AA21" s="170"/>
+      <c r="AB21" s="170"/>
+      <c r="AC21" s="170"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
     </row>
     <row r="22" spans="1:36" ht="27" customHeight="1">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="115"/>
-      <c r="C22" s="102" t="s">
+      <c r="B22" s="164"/>
+      <c r="C22" s="150" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="92" t="s">
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92" t="s">
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92" t="s">
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92" t="s">
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="51"/>
+      <c r="Q22" s="202"/>
+      <c r="R22" s="203"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
@@ -3159,24 +3159,24 @@
       <c r="AJ22" s="32"/>
     </row>
     <row r="23" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="100"/>
-      <c r="R23" s="101"/>
+      <c r="A23" s="165"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="147"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
@@ -3195,26 +3195,26 @@
       <c r="AJ23" s="32"/>
     </row>
     <row r="24" spans="1:36" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="108"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="108"/>
-      <c r="R24" s="109"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="157"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="158"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -3236,35 +3236,35 @@
       <c r="A25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112" t="s">
+      <c r="C25" s="160"/>
+      <c r="D25" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="48" t="s">
+      <c r="E25" s="162"/>
+      <c r="F25" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="48" t="s">
+      <c r="G25" s="167"/>
+      <c r="H25" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="48" t="s">
+      <c r="I25" s="169"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="79" t="s">
+      <c r="L25" s="185"/>
+      <c r="M25" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="81"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="173"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -3286,23 +3286,23 @@
       <c r="A26" s="27">
         <v>1</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="84"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="176"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -3324,23 +3324,23 @@
       <c r="A27" s="27">
         <v>2</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="84"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="176"/>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -3362,23 +3362,23 @@
       <c r="A28" s="27">
         <v>3</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="84"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="174"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="176"/>
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
@@ -3400,23 +3400,23 @@
       <c r="A29" s="27">
         <v>4</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="176"/>
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
@@ -3438,23 +3438,23 @@
       <c r="A30" s="27">
         <v>5</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="176"/>
       <c r="U30" s="32"/>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
@@ -3476,352 +3476,352 @@
       <c r="A31" s="27">
         <v>6</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="84"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="176"/>
     </row>
     <row r="32" spans="1:36" ht="27" customHeight="1">
       <c r="A32" s="27">
         <v>7</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="84"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="174"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="176"/>
     </row>
     <row r="33" spans="1:18" ht="27" customHeight="1">
       <c r="A33" s="27">
         <v>8</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="84"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="176"/>
     </row>
     <row r="34" spans="1:18" ht="27" customHeight="1">
       <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="84"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="174"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="176"/>
     </row>
     <row r="35" spans="1:18" ht="27" customHeight="1">
       <c r="A35" s="27">
         <v>10</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="84"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="174"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="175"/>
+      <c r="Q35" s="175"/>
+      <c r="R35" s="176"/>
     </row>
     <row r="36" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="27">
         <v>11</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="87"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="178"/>
+      <c r="O36" s="178"/>
+      <c r="P36" s="178"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="179"/>
     </row>
     <row r="37" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="27">
         <v>12</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="89" t="s">
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="91"/>
+      <c r="N37" s="182"/>
+      <c r="O37" s="182"/>
+      <c r="P37" s="182"/>
+      <c r="Q37" s="182"/>
+      <c r="R37" s="183"/>
     </row>
     <row r="38" spans="1:18" ht="27" customHeight="1">
       <c r="A38" s="27">
         <v>13</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="88" t="s">
+      <c r="B38" s="100"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="180" t="s">
         <v>82</v>
       </c>
-      <c r="N38" s="49"/>
-      <c r="O38" s="48" t="s">
+      <c r="N38" s="167"/>
+      <c r="O38" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="48" t="s">
+      <c r="P38" s="167"/>
+      <c r="Q38" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="R38" s="55"/>
+      <c r="R38" s="185"/>
     </row>
     <row r="39" spans="1:18" ht="27" customHeight="1">
       <c r="A39" s="27">
         <v>14</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="56"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="198"/>
+      <c r="N39" s="199"/>
+      <c r="O39" s="204"/>
+      <c r="P39" s="199"/>
+      <c r="Q39" s="204"/>
+      <c r="R39" s="206"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A40" s="27">
         <v>15</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="56"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="199"/>
+      <c r="O40" s="204"/>
+      <c r="P40" s="199"/>
+      <c r="Q40" s="204"/>
+      <c r="R40" s="206"/>
     </row>
     <row r="41" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A41" s="27">
         <v>16</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="56"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="198"/>
+      <c r="N41" s="199"/>
+      <c r="O41" s="204"/>
+      <c r="P41" s="199"/>
+      <c r="Q41" s="204"/>
+      <c r="R41" s="206"/>
     </row>
     <row r="42" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A42" s="27">
         <v>17</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="56"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="198"/>
+      <c r="N42" s="199"/>
+      <c r="O42" s="204"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="204"/>
+      <c r="R42" s="206"/>
     </row>
     <row r="43" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A43" s="33">
         <v>18</v>
       </c>
-      <c r="B43" s="137"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="57"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="200"/>
+      <c r="N43" s="201"/>
+      <c r="O43" s="205"/>
+      <c r="P43" s="201"/>
+      <c r="Q43" s="205"/>
+      <c r="R43" s="207"/>
     </row>
     <row r="44" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A44" s="139" t="s">
+      <c r="A44" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
-      <c r="N44" s="140"/>
-      <c r="O44" s="140"/>
-      <c r="P44" s="140"/>
-      <c r="Q44" s="140"/>
-      <c r="R44" s="141"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="129"/>
     </row>
     <row r="45" spans="1:18" ht="17.25">
-      <c r="A45" s="144" t="s">
+      <c r="A45" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="127" t="s">
+      <c r="B45" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="131" t="s">
+      <c r="C45" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="132" t="s">
+      <c r="D45" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="133"/>
-      <c r="M45" s="133"/>
-      <c r="N45" s="133"/>
-      <c r="O45" s="133"/>
-      <c r="P45" s="133"/>
-      <c r="Q45" s="133"/>
-      <c r="R45" s="134" t="s">
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="124"/>
+      <c r="O45" s="124"/>
+      <c r="P45" s="124"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17.25">
-      <c r="A46" s="145"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="40"/>
+      <c r="A46" s="132"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="26" t="s">
         <v>0</v>
       </c>
@@ -3858,17 +3858,17 @@
       <c r="O46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P46" s="136" t="s">
+      <c r="P46" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="Q46" s="136"/>
-      <c r="R46" s="135"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="125"/>
     </row>
     <row r="47" spans="1:18" ht="27" customHeight="1">
-      <c r="A47" s="200" t="s">
+      <c r="A47" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -3886,13 +3886,13 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="198"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="38"/>
     </row>
     <row r="48" spans="1:18" ht="27" customHeight="1">
-      <c r="A48" s="201"/>
-      <c r="B48" s="121"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="22" t="s">
         <v>24</v>
       </c>
@@ -3908,9 +3908,9 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="202"/>
-      <c r="Q48" s="203"/>
-      <c r="R48" s="199"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="39"/>
     </row>
     <row r="49" spans="1:18" ht="27" customHeight="1">
       <c r="A49" s="20" t="s">
@@ -3934,8 +3934,8 @@
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="202"/>
-      <c r="Q49" s="203"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="48"/>
       <c r="R49" s="35"/>
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1">
@@ -3960,8 +3960,8 @@
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="202"/>
-      <c r="Q50" s="203"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="48"/>
       <c r="R50" s="35"/>
     </row>
     <row r="51" spans="1:18" ht="27" customHeight="1">
@@ -3986,12 +3986,12 @@
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="202"/>
-      <c r="Q51" s="203"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="48"/>
       <c r="R51" s="35"/>
     </row>
     <row r="52" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A52" s="144" t="s">
+      <c r="A52" s="40" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -4012,12 +4012,12 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
       <c r="O52" s="30"/>
-      <c r="P52" s="202"/>
-      <c r="Q52" s="203"/>
-      <c r="R52" s="198"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="38"/>
     </row>
     <row r="53" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A53" s="144"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="21" t="s">
         <v>95</v>
       </c>
@@ -4036,15 +4036,15 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
-      <c r="P53" s="202"/>
-      <c r="Q53" s="203"/>
-      <c r="R53" s="199"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="39"/>
     </row>
     <row r="54" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A54" s="144" t="s">
+      <c r="A54" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="127" t="s">
+      <c r="B54" s="41" t="s">
         <v>92</v>
       </c>
       <c r="C54" s="34" t="s">
@@ -4062,13 +4062,13 @@
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
-      <c r="P54" s="202"/>
-      <c r="Q54" s="203"/>
-      <c r="R54" s="198"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="38"/>
     </row>
     <row r="55" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A55" s="144"/>
-      <c r="B55" s="127"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="34" t="s">
         <v>24</v>
       </c>
@@ -4084,15 +4084,15 @@
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
-      <c r="P55" s="202"/>
-      <c r="Q55" s="203"/>
-      <c r="R55" s="199"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="39"/>
     </row>
     <row r="56" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A56" s="144" t="s">
+      <c r="A56" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="127" t="s">
+      <c r="B56" s="41" t="s">
         <v>93</v>
       </c>
       <c r="C56" s="34">
@@ -4110,13 +4110,13 @@
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
       <c r="O56" s="30"/>
-      <c r="P56" s="202"/>
-      <c r="Q56" s="203"/>
-      <c r="R56" s="198"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="38"/>
     </row>
     <row r="57" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A57" s="144"/>
-      <c r="B57" s="127"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="34">
         <v>600</v>
       </c>
@@ -4132,15 +4132,15 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
       <c r="O57" s="30"/>
-      <c r="P57" s="202"/>
-      <c r="Q57" s="203"/>
-      <c r="R57" s="199"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="39"/>
     </row>
     <row r="58" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A58" s="144" t="s">
+      <c r="A58" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="34" t="s">
@@ -4158,13 +4158,13 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="202"/>
-      <c r="Q58" s="203"/>
-      <c r="R58" s="198"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="38"/>
     </row>
     <row r="59" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A59" s="144"/>
-      <c r="B59" s="127"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="34" t="s">
         <v>52</v>
       </c>
@@ -4180,16 +4180,16 @@
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
-      <c r="P59" s="202"/>
-      <c r="Q59" s="203"/>
-      <c r="R59" s="199"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="39"/>
     </row>
     <row r="60" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A60" s="204" t="s">
+      <c r="A60" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="170"/>
-      <c r="C60" s="205"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4202,165 +4202,165 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="202"/>
-      <c r="Q60" s="203"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="48"/>
       <c r="R60" s="25"/>
     </row>
     <row r="61" spans="1:18" ht="21.95" customHeight="1">
-      <c r="A61" s="128" t="s">
+      <c r="A61" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="129"/>
-      <c r="N61" s="129"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="130"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="137"/>
+      <c r="O61" s="137"/>
+      <c r="P61" s="137"/>
+      <c r="Q61" s="137"/>
+      <c r="R61" s="138"/>
     </row>
     <row r="62" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A62" s="124" t="s">
+      <c r="A62" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="125"/>
-      <c r="C62" s="127" t="s">
+      <c r="B62" s="134"/>
+      <c r="C62" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="121"/>
-      <c r="E62" s="40">
+      <c r="D62" s="44"/>
+      <c r="E62" s="100">
         <v>1</v>
       </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="40">
+      <c r="F62" s="101"/>
+      <c r="G62" s="100">
         <v>2</v>
       </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="121">
+      <c r="H62" s="101"/>
+      <c r="I62" s="44">
         <v>3</v>
       </c>
-      <c r="J62" s="121"/>
-      <c r="K62" s="98">
+      <c r="J62" s="44"/>
+      <c r="K62" s="168">
         <v>4</v>
       </c>
-      <c r="L62" s="41"/>
-      <c r="M62" s="121">
+      <c r="L62" s="101"/>
+      <c r="M62" s="44">
         <v>5</v>
       </c>
-      <c r="N62" s="121"/>
-      <c r="O62" s="121">
+      <c r="N62" s="44"/>
+      <c r="O62" s="44">
         <v>6</v>
       </c>
-      <c r="P62" s="121"/>
-      <c r="Q62" s="121" t="s">
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="R62" s="59"/>
+      <c r="R62" s="135"/>
     </row>
     <row r="63" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A63" s="124" t="s">
+      <c r="A63" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="125"/>
-      <c r="C63" s="127" t="s">
+      <c r="B63" s="134"/>
+      <c r="C63" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="121"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="65"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="121"/>
-      <c r="N63" s="121"/>
-      <c r="O63" s="121"/>
-      <c r="P63" s="121"/>
-      <c r="Q63" s="121"/>
-      <c r="R63" s="59"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="139"/>
+      <c r="J63" s="139"/>
+      <c r="K63" s="146"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="135"/>
     </row>
     <row r="64" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A64" s="124" t="s">
+      <c r="A64" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="125"/>
-      <c r="C64" s="121" t="s">
+      <c r="B64" s="134"/>
+      <c r="C64" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="121"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="121"/>
-      <c r="N64" s="121"/>
-      <c r="O64" s="121"/>
-      <c r="P64" s="121"/>
-      <c r="Q64" s="121"/>
-      <c r="R64" s="59"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="139"/>
+      <c r="J64" s="139"/>
+      <c r="K64" s="146"/>
+      <c r="L64" s="97"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="135"/>
     </row>
     <row r="65" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A65" s="122" t="s">
+      <c r="A65" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="123"/>
-      <c r="C65" s="121" t="s">
+      <c r="B65" s="144"/>
+      <c r="C65" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="121"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="121"/>
-      <c r="N65" s="121"/>
-      <c r="O65" s="121"/>
-      <c r="P65" s="121"/>
-      <c r="Q65" s="121"/>
-      <c r="R65" s="59"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="139"/>
+      <c r="J65" s="139"/>
+      <c r="K65" s="146"/>
+      <c r="L65" s="97"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="135"/>
     </row>
     <row r="66" spans="1:18" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A66" s="118" t="s">
+      <c r="A66" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="119"/>
-      <c r="C66" s="120" t="s">
+      <c r="B66" s="141"/>
+      <c r="C66" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="120"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="97"/>
-      <c r="M66" s="93"/>
-      <c r="N66" s="93"/>
-      <c r="O66" s="93"/>
-      <c r="P66" s="93"/>
-      <c r="Q66" s="93"/>
-      <c r="R66" s="60"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="108"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="105"/>
+      <c r="N66" s="105"/>
+      <c r="O66" s="105"/>
+      <c r="P66" s="105"/>
+      <c r="Q66" s="105"/>
+      <c r="R66" s="145"/>
     </row>
     <row r="67" spans="1:18" ht="15" customHeight="1">
       <c r="A67" s="12"/>
@@ -4784,103 +4784,220 @@
     </row>
   </sheetData>
   <mergeCells count="335">
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="P47:Q60"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="AA20:AB21"/>
+    <mergeCell ref="M25:R36"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="A61:R61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="Q17:R18"/>
     <mergeCell ref="B15:C15"/>
@@ -4905,220 +5022,103 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="A61:R61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="AA20:AB21"/>
-    <mergeCell ref="M25:R36"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="X20:Y21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="P47:Q60"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Plan/py/excel_file.xlsx
+++ b/Plan/py/excel_file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Billet_Casting\Plan\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D70870-9B88-45FE-BCC2-F62DCAB36386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8F4D2-1AA2-4B2B-989D-C5DB47B39049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6685DC73-02EB-42C7-9FF3-CE584FEA71CB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="input" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Casting!$A$1:$R$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Casting!$A$1:$R$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="134">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1200(600)±5mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90°±0.4°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,9 +122,6 @@
     <t>Người phụ trách</t>
   </si>
   <si>
-    <t>Yêu cầu</t>
-  </si>
-  <si>
     <t>Yêu cầu kỹ thuật</t>
   </si>
   <si>
@@ -205,33 +194,6 @@
     <t>Đầu E</t>
   </si>
   <si>
-    <t>Độ vuông góc (°)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ø229</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>±2mm</t>
-    </r>
-  </si>
-  <si>
-    <t>Phụ trách</t>
-  </si>
-  <si>
     <t>Ghi chú:</t>
   </si>
   <si>
@@ -260,15 +222,6 @@
   </si>
   <si>
     <t>Kiểm tra</t>
-  </si>
-  <si>
-    <t>Đường kính billet</t>
-  </si>
-  <si>
-    <t>Dưới 2 mm/1.2m</t>
-  </si>
-  <si>
-    <t>Chiều dài billet</t>
   </si>
   <si>
     <t>Số gas bắt đầu</t>
@@ -487,7 +440,16 @@
     <t>B</t>
   </si>
   <si>
-    <t>Mục kiểm tra</t>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>Billet</t>
+  </si>
+  <si>
+    <t>SL</t>
   </si>
 </sst>
 </file>
@@ -497,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#&quot; inch&quot;"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,19 +509,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -630,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1292,11 +1241,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1339,11 +1336,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1399,61 +1396,519 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1462,15 +1917,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1480,424 +1926,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1923,13 +2016,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>277097</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:rowOff>36285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>204108</xdr:colOff>
+      <xdr:colOff>82394</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>769086</xdr:rowOff>
+      <xdr:rowOff>698500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1959,8 +2052,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="277097" y="68035"/>
-          <a:ext cx="2199404" cy="701051"/>
+          <a:off x="277097" y="36285"/>
+          <a:ext cx="2075422" cy="662215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2410,7 +2503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA99EC7B-5ED7-4896-A69C-A4EC2319BB84}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AJ87"/>
@@ -2431,155 +2524,155 @@
     <col min="19" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="54"/>
+    <row r="1" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
+      <c r="A1" s="208" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="209"/>
+      <c r="K1" s="209"/>
+      <c r="L1" s="209"/>
+      <c r="M1" s="209"/>
+      <c r="N1" s="209"/>
+      <c r="O1" s="209"/>
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
     </row>
     <row r="2" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A2" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="A2" s="211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="I2" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
       <c r="N2" s="13"/>
       <c r="O2" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
+      <c r="A3" s="214" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="205"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="170"/>
+      <c r="F3" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="170"/>
+      <c r="H3" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="170"/>
+      <c r="J3" s="146" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="170"/>
+      <c r="L3" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="205"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="64"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="217"/>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A4" s="71">
+      <c r="A4" s="198">
         <f>input!C1</f>
         <v>0</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74">
+      <c r="B4" s="199"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="201">
         <f>input!C2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="78">
+      <c r="E4" s="202"/>
+      <c r="F4" s="203">
         <f>input!C3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="83">
+      <c r="G4" s="204"/>
+      <c r="H4" s="206">
         <f>input!C4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="83">
+      <c r="I4" s="207"/>
+      <c r="J4" s="206">
         <f>input!C5</f>
         <v>0</v>
       </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="80">
+      <c r="K4" s="207"/>
+      <c r="L4" s="152">
         <f>input!C6</f>
         <v>0</v>
       </c>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="76">
+      <c r="M4" s="193"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="154">
         <f>input!C7</f>
         <v>0</v>
       </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="65">
+      <c r="P4" s="155"/>
+      <c r="Q4" s="161">
         <f>input!C8</f>
         <v>0</v>
       </c>
-      <c r="R4" s="66"/>
+      <c r="R4" s="194"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A5" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
+      <c r="A5" s="195" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
+      <c r="I5" s="197" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
       <c r="N5" s="9"/>
       <c r="O5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -2587,67 +2680,67 @@
     </row>
     <row r="6" spans="1:20" ht="42" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="170"/>
+      <c r="D6" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="170"/>
+      <c r="F6" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" s="70"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="170"/>
+      <c r="J6" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="170"/>
+      <c r="L6" s="146" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="205"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="146" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="146" t="s">
+        <v>77</v>
+      </c>
+      <c r="R6" s="149"/>
     </row>
     <row r="7" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="85"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="189"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="183"/>
     </row>
     <row r="8" spans="1:20" ht="18" thickBot="1">
       <c r="A8" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="12"/>
@@ -2656,16 +2749,16 @@
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
+      <c r="I8" s="184" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
       <c r="N8" s="23"/>
       <c r="O8" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -2673,219 +2766,219 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A9" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="94" t="s">
-        <v>118</v>
+      <c r="A9" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="180" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="180"/>
+      <c r="D9" s="167" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="167"/>
+      <c r="F9" s="180" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="180"/>
+      <c r="P9" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="191" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="91">
+      <c r="A10" s="186"/>
+      <c r="B10" s="187">
         <f>input!C13</f>
         <v>0</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="98">
+      <c r="C10" s="188"/>
+      <c r="D10" s="181">
         <f>input!C9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="98">
+      <c r="E10" s="182"/>
+      <c r="F10" s="181">
         <f>input!C10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="98">
+      <c r="G10" s="182"/>
+      <c r="H10" s="181">
         <f>input!C15</f>
         <v>0</v>
       </c>
-      <c r="I10" s="99"/>
-      <c r="J10" s="98">
+      <c r="I10" s="182"/>
+      <c r="J10" s="181">
         <f>input!C14</f>
         <v>0</v>
       </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="98">
+      <c r="K10" s="182"/>
+      <c r="L10" s="181">
         <f>input!C11</f>
         <v>0</v>
       </c>
-      <c r="M10" s="99"/>
-      <c r="N10" s="98">
+      <c r="M10" s="182"/>
+      <c r="N10" s="181">
         <f>input!C12</f>
         <v>0</v>
       </c>
-      <c r="O10" s="99"/>
-      <c r="P10" s="45">
+      <c r="O10" s="182"/>
+      <c r="P10" s="89">
         <f>input!C16</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="95"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="192"/>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="195"/>
+        <v>53</v>
+      </c>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="84"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="139"/>
-      <c r="Q12" s="139"/>
-      <c r="R12" s="135"/>
+        <v>111</v>
+      </c>
+      <c r="B12" s="146"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="85"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="135"/>
+        <v>54</v>
+      </c>
+      <c r="B13" s="146"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="85"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="139"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="135"/>
+        <v>112</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="85"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="145"/>
+        <v>55</v>
+      </c>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="86"/>
     </row>
     <row r="16" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A16" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
+      <c r="A16" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="177" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
       <c r="N16" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -2893,32 +2986,32 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="27" customHeight="1">
-      <c r="A17" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="121" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="121"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="117"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="119"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="102"/>
+      <c r="A17" s="178" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="179" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="179"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="165" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="165"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="103"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="168"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
@@ -2937,32 +3030,32 @@
       <c r="AJ17" s="32"/>
     </row>
     <row r="18" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A18" s="109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="110"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="111"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="104"/>
+      <c r="A18" s="173" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="174"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="174"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="92"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="120" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="120"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="169"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
@@ -2982,7 +3075,7 @@
     </row>
     <row r="19" spans="1:36" ht="21.95" customHeight="1" thickBot="1">
       <c r="A19" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="12"/>
@@ -2991,16 +3084,16 @@
       <c r="F19" s="12"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="122" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
-      <c r="M19" s="122"/>
+      <c r="I19" s="166" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
       <c r="N19" s="31"/>
       <c r="O19" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -3023,124 +3116,124 @@
       <c r="AJ19" s="32"/>
     </row>
     <row r="20" spans="1:36" ht="27" customHeight="1">
-      <c r="A20" s="186" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="192" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="192"/>
-      <c r="P20" s="117" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="117"/>
-      <c r="R20" s="194"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="191"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="170"/>
-      <c r="AB20" s="170"/>
-      <c r="AC20" s="170"/>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
+      <c r="A20" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="101"/>
+      <c r="M20" s="101"/>
+      <c r="N20" s="101"/>
+      <c r="O20" s="101"/>
+      <c r="P20" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" s="103"/>
+      <c r="R20" s="104"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="99"/>
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
       <c r="AJ20" s="32"/>
     </row>
     <row r="21" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A21" s="188" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="189"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="189"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="193" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="193"/>
-      <c r="M21" s="193"/>
-      <c r="N21" s="193"/>
-      <c r="O21" s="193"/>
-      <c r="P21" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="184"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="191"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="170"/>
-      <c r="AB21" s="170"/>
-      <c r="AC21" s="170"/>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
+      <c r="A21" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="102" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="120" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="121"/>
+      <c r="U21" s="99"/>
+      <c r="V21" s="99"/>
+      <c r="W21" s="100"/>
+      <c r="X21" s="99"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
       <c r="AJ21" s="32"/>
     </row>
     <row r="22" spans="1:36" ht="27" customHeight="1">
-      <c r="A22" s="163" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="164"/>
-      <c r="C22" s="150" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="120" t="s">
+      <c r="A22" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="138"/>
+      <c r="C22" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="202"/>
-      <c r="R22" s="203"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="77"/>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
@@ -3159,24 +3252,24 @@
       <c r="AJ22" s="32"/>
     </row>
     <row r="23" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="147"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="124"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
@@ -3194,27 +3287,27 @@
       <c r="AI23" s="32"/>
       <c r="AJ23" s="32"/>
     </row>
-    <row r="24" spans="1:36" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A24" s="156" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="157"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="157"/>
-      <c r="M24" s="157"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="158"/>
+    <row r="24" spans="1:36" ht="27" thickBot="1">
+      <c r="A24" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="132"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -3234,37 +3327,37 @@
     </row>
     <row r="25" spans="1:36" ht="17.25" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="159" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="160"/>
-      <c r="D25" s="161" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="162"/>
-      <c r="F25" s="166" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="167"/>
-      <c r="H25" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="I25" s="169"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="185"/>
-      <c r="M25" s="171" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="173"/>
+      <c r="B25" s="133" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="136"/>
+      <c r="F25" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="75"/>
+      <c r="H25" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="122"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="81"/>
+      <c r="M25" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="107"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -3286,23 +3379,23 @@
       <c r="A26" s="27">
         <v>1</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="176"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="110"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -3324,23 +3417,23 @@
       <c r="A27" s="27">
         <v>2</v>
       </c>
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="174"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="176"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="110"/>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -3362,23 +3455,23 @@
       <c r="A28" s="27">
         <v>3</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="174"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="176"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="110"/>
       <c r="U28" s="32"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
@@ -3400,23 +3493,23 @@
       <c r="A29" s="27">
         <v>4</v>
       </c>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="176"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="110"/>
       <c r="U29" s="32"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
@@ -3438,23 +3531,23 @@
       <c r="A30" s="27">
         <v>5</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="176"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="110"/>
       <c r="U30" s="32"/>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
@@ -3476,352 +3569,352 @@
       <c r="A31" s="27">
         <v>6</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="176"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="110"/>
     </row>
     <row r="32" spans="1:36" ht="27" customHeight="1">
       <c r="A32" s="27">
         <v>7</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="176"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="109"/>
+      <c r="R32" s="110"/>
     </row>
     <row r="33" spans="1:18" ht="27" customHeight="1">
       <c r="A33" s="27">
         <v>8</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="148"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="176"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109"/>
+      <c r="R33" s="110"/>
     </row>
     <row r="34" spans="1:18" ht="27" customHeight="1">
       <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="176"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="109"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109"/>
+      <c r="R34" s="110"/>
     </row>
     <row r="35" spans="1:18" ht="27" customHeight="1">
       <c r="A35" s="27">
         <v>10</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="174"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="175"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="176"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="110"/>
     </row>
     <row r="36" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="27">
         <v>11</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="177"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="178"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="179"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="113"/>
     </row>
     <row r="37" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="27">
         <v>12</v>
       </c>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="148"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="181" t="s">
-        <v>81</v>
-      </c>
-      <c r="N37" s="182"/>
-      <c r="O37" s="182"/>
-      <c r="P37" s="182"/>
-      <c r="Q37" s="182"/>
-      <c r="R37" s="183"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="117"/>
     </row>
     <row r="38" spans="1:18" ht="27" customHeight="1">
       <c r="A38" s="27">
         <v>13</v>
       </c>
-      <c r="B38" s="100"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="148"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="N38" s="167"/>
-      <c r="O38" s="166" t="s">
-        <v>83</v>
-      </c>
-      <c r="P38" s="167"/>
-      <c r="Q38" s="166" t="s">
-        <v>84</v>
-      </c>
-      <c r="R38" s="185"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="75"/>
+      <c r="O38" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="R38" s="81"/>
     </row>
     <row r="39" spans="1:18" ht="27" customHeight="1">
       <c r="A39" s="27">
         <v>14</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="148"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="198"/>
-      <c r="N39" s="199"/>
-      <c r="O39" s="204"/>
-      <c r="P39" s="199"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="206"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="79"/>
+      <c r="R39" s="82"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A40" s="27">
         <v>15</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="198"/>
-      <c r="N40" s="199"/>
-      <c r="O40" s="204"/>
-      <c r="P40" s="199"/>
-      <c r="Q40" s="204"/>
-      <c r="R40" s="206"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="65"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="82"/>
     </row>
     <row r="41" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A41" s="27">
         <v>16</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="198"/>
-      <c r="N41" s="199"/>
-      <c r="O41" s="204"/>
-      <c r="P41" s="199"/>
-      <c r="Q41" s="204"/>
-      <c r="R41" s="206"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="82"/>
     </row>
     <row r="42" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
       <c r="A42" s="27">
         <v>17</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="148"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="198"/>
-      <c r="N42" s="199"/>
-      <c r="O42" s="204"/>
-      <c r="P42" s="199"/>
-      <c r="Q42" s="204"/>
-      <c r="R42" s="206"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="79"/>
+      <c r="R42" s="82"/>
     </row>
     <row r="43" spans="1:18" ht="27" customHeight="1" thickBot="1">
       <c r="A43" s="33">
         <v>18</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="200"/>
-      <c r="N43" s="201"/>
-      <c r="O43" s="205"/>
-      <c r="P43" s="201"/>
-      <c r="Q43" s="205"/>
-      <c r="R43" s="207"/>
-    </row>
-    <row r="44" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A44" s="127" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="128"/>
-      <c r="O44" s="128"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="128"/>
-      <c r="R44" s="129"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="73"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="83"/>
+    </row>
+    <row r="44" spans="1:18" ht="28.5">
+      <c r="A44" s="156" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="157"/>
+      <c r="O44" s="157"/>
+      <c r="P44" s="157"/>
+      <c r="Q44" s="157"/>
+      <c r="R44" s="158"/>
     </row>
     <row r="45" spans="1:18" ht="17.25">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="D45" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="70" t="s">
-        <v>65</v>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="148"/>
+      <c r="K45" s="148"/>
+      <c r="L45" s="148"/>
+      <c r="M45" s="148"/>
+      <c r="N45" s="148"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="148"/>
+      <c r="R45" s="149" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17.25">
-      <c r="A46" s="132"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="100"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="26" t="s">
         <v>0</v>
       </c>
@@ -3858,21 +3951,21 @@
       <c r="O46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P46" s="126" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="125"/>
+      <c r="P46" s="151" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q46" s="151"/>
+      <c r="R46" s="150"/>
     </row>
     <row r="47" spans="1:18" ht="27" customHeight="1">
-      <c r="A47" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>26</v>
+      <c r="A47" s="220" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="144" t="s">
+        <v>24</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
@@ -3886,15 +3979,15 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="38"/>
+      <c r="P47" s="89"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="218"/>
     </row>
     <row r="48" spans="1:18" ht="27" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
+      <c r="A48" s="221"/>
+      <c r="B48" s="145"/>
       <c r="C48" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -3908,19 +4001,19 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="39"/>
+      <c r="P48" s="222"/>
+      <c r="Q48" s="223"/>
+      <c r="R48" s="219"/>
     </row>
     <row r="49" spans="1:18" ht="27" customHeight="1">
       <c r="A49" s="20" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -3934,19 +4027,19 @@
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="48"/>
+      <c r="P49" s="222"/>
+      <c r="Q49" s="223"/>
       <c r="R49" s="35"/>
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1">
       <c r="A50" s="29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
@@ -3960,19 +4053,19 @@
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="48"/>
+      <c r="P50" s="222"/>
+      <c r="Q50" s="223"/>
       <c r="R50" s="35"/>
     </row>
     <row r="51" spans="1:18" ht="27" customHeight="1">
       <c r="A51" s="20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
@@ -3986,16 +4079,16 @@
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="48"/>
+      <c r="P51" s="222"/>
+      <c r="Q51" s="223"/>
       <c r="R51" s="35"/>
     </row>
     <row r="52" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A52" s="40" t="s">
-        <v>97</v>
+      <c r="A52" s="162" t="s">
+        <v>88</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C52" s="34">
         <v>1200</v>
@@ -4012,14 +4105,14 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
       <c r="O52" s="30"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="38"/>
+      <c r="P52" s="222"/>
+      <c r="Q52" s="223"/>
+      <c r="R52" s="218"/>
     </row>
     <row r="53" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A53" s="40"/>
+      <c r="A53" s="162"/>
       <c r="B53" s="21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C53" s="34">
         <v>600</v>
@@ -4036,19 +4129,19 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="39"/>
+      <c r="P53" s="222"/>
+      <c r="Q53" s="223"/>
+      <c r="R53" s="219"/>
     </row>
     <row r="54" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A54" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>92</v>
+      <c r="A54" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="144" t="s">
+        <v>83</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
@@ -4062,15 +4155,15 @@
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="38"/>
+      <c r="P54" s="222"/>
+      <c r="Q54" s="223"/>
+      <c r="R54" s="218"/>
     </row>
     <row r="55" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
+      <c r="A55" s="162"/>
+      <c r="B55" s="144"/>
       <c r="C55" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
@@ -4084,16 +4177,16 @@
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="39"/>
+      <c r="P55" s="222"/>
+      <c r="Q55" s="223"/>
+      <c r="R55" s="219"/>
     </row>
     <row r="56" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A56" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>93</v>
+      <c r="A56" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="144" t="s">
+        <v>84</v>
       </c>
       <c r="C56" s="34">
         <v>1200</v>
@@ -4110,13 +4203,13 @@
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
       <c r="O56" s="30"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="38"/>
+      <c r="P56" s="222"/>
+      <c r="Q56" s="223"/>
+      <c r="R56" s="218"/>
     </row>
     <row r="57" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A57" s="40"/>
-      <c r="B57" s="41"/>
+      <c r="A57" s="162"/>
+      <c r="B57" s="144"/>
       <c r="C57" s="34">
         <v>600</v>
       </c>
@@ -4132,19 +4225,19 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
       <c r="O57" s="30"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="39"/>
+      <c r="P57" s="222"/>
+      <c r="Q57" s="223"/>
+      <c r="R57" s="219"/>
     </row>
     <row r="58" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A58" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>50</v>
+      <c r="A58" s="162" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="144" t="s">
+        <v>47</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -4158,15 +4251,15 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="38"/>
+      <c r="P58" s="222"/>
+      <c r="Q58" s="223"/>
+      <c r="R58" s="218"/>
     </row>
     <row r="59" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A59" s="40"/>
-      <c r="B59" s="41"/>
+      <c r="A59" s="162"/>
+      <c r="B59" s="144"/>
       <c r="C59" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
@@ -4180,16 +4273,16 @@
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="39"/>
+      <c r="P59" s="222"/>
+      <c r="Q59" s="223"/>
+      <c r="R59" s="219"/>
     </row>
     <row r="60" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A60" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
+      <c r="A60" s="224" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="188"/>
+      <c r="C60" s="225"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4202,185 +4295,243 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="48"/>
+      <c r="P60" s="222"/>
+      <c r="Q60" s="223"/>
       <c r="R60" s="25"/>
     </row>
-    <row r="61" spans="1:18" ht="21.95" customHeight="1">
-      <c r="A61" s="136" t="s">
-        <v>99</v>
-      </c>
-      <c r="B61" s="137"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="137"/>
-      <c r="E61" s="137"/>
-      <c r="F61" s="137"/>
-      <c r="G61" s="137"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="137"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="137"/>
-      <c r="L61" s="137"/>
-      <c r="M61" s="137"/>
-      <c r="N61" s="137"/>
-      <c r="O61" s="137"/>
-      <c r="P61" s="137"/>
-      <c r="Q61" s="137"/>
-      <c r="R61" s="138"/>
-    </row>
-    <row r="62" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A62" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="B62" s="134"/>
-      <c r="C62" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="100">
-        <v>1</v>
-      </c>
-      <c r="F62" s="101"/>
-      <c r="G62" s="100">
-        <v>2</v>
-      </c>
-      <c r="H62" s="101"/>
-      <c r="I62" s="44">
-        <v>3</v>
-      </c>
-      <c r="J62" s="44"/>
-      <c r="K62" s="168">
-        <v>4</v>
-      </c>
-      <c r="L62" s="101"/>
-      <c r="M62" s="44">
-        <v>5</v>
-      </c>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44">
-        <v>6</v>
-      </c>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="R62" s="135"/>
-    </row>
-    <row r="63" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A63" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="134"/>
-      <c r="C63" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="139"/>
-      <c r="J63" s="139"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="97"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="135"/>
-    </row>
-    <row r="64" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A64" s="133" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="134"/>
-      <c r="C64" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="139"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="97"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="135"/>
-    </row>
-    <row r="65" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A65" s="143" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="144"/>
-      <c r="C65" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="139"/>
-      <c r="J65" s="139"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="97"/>
-      <c r="M65" s="44"/>
+    <row r="61" spans="1:18" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A61" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="142"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="142"/>
+      <c r="I61" s="142"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="142"/>
+      <c r="L61" s="142"/>
+      <c r="M61" s="142"/>
+      <c r="N61" s="142"/>
+      <c r="O61" s="142"/>
+      <c r="P61" s="142"/>
+      <c r="Q61" s="142"/>
+      <c r="R61" s="143"/>
+    </row>
+    <row r="62" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A62" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J62" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="M62" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="N62" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="O62" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="P62" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="61"/>
+    </row>
+    <row r="63" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A63" s="56">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="226">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="231"/>
+      <c r="I63" s="235">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="236"/>
+      <c r="M63" s="226">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="57"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="63"/>
+    </row>
+    <row r="64" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A64" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="227">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="43"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="232"/>
+      <c r="I64" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="237"/>
+      <c r="M64" s="227">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="42"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="63"/>
+    </row>
+    <row r="65" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A65" s="39">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B65" s="44"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="230"/>
+      <c r="E65" s="228">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="233"/>
+      <c r="I65" s="39">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="42"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="237"/>
+      <c r="M65" s="227">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
       <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="135"/>
-    </row>
-    <row r="66" spans="1:18" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A66" s="140" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="141"/>
-      <c r="C66" s="142" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="142"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="108"/>
-      <c r="J66" s="108"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="105"/>
-      <c r="N66" s="105"/>
-      <c r="O66" s="105"/>
-      <c r="P66" s="105"/>
-      <c r="Q66" s="105"/>
-      <c r="R66" s="145"/>
-    </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="63"/>
+    </row>
+    <row r="66" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A66" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B66" s="42"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="227">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="232"/>
+      <c r="I66" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="238"/>
+      <c r="M66" s="227">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="42"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="63"/>
+    </row>
+    <row r="67" spans="1:18" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A67" s="40">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B67" s="45"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="229">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F67" s="46"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="234"/>
+      <c r="I67" s="40">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="239"/>
+      <c r="M67" s="229">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="45"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="63"/>
     </row>
     <row r="68" spans="1:18" ht="15" customHeight="1">
       <c r="A68" s="12"/>
@@ -4783,19 +4934,251 @@
       <c r="R87" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="335">
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="291">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="P47:Q60"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M25:R36"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="AA20:AB21"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="M39:N39"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="M41:N41"/>
@@ -4820,289 +5203,20 @@
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="X20:Y21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="AA20:AB21"/>
-    <mergeCell ref="M25:R36"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q62:R67"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="A61:R61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="L3:N3"/>
     <mergeCell ref="R47:R48"/>
     <mergeCell ref="R52:R53"/>
     <mergeCell ref="R54:R55"/>
@@ -5113,12 +5227,6 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="P47:Q60"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5129,9 +5237,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822DE0DA-CE07-4E9A-9B9B-F80CAAB373AD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5140,97 +5251,97 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C1" s="37"/>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="36" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C2" s="37"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="36" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C3" s="37"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="36" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C4" s="37"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="36" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C5" s="37"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C6" s="37"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="36" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C7" s="37"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="36" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8" s="37"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="36" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C9" s="37"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="36" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C10" s="37"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="36" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C11" s="37"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="36" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C12" s="37"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C13" s="37"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="36" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C14" s="37"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="36" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C15" s="37"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="36" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C16" s="37"/>
     </row>

--- a/Plan/py/excel_file.xlsx
+++ b/Plan/py/excel_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Billet_Casting\Plan\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8F4D2-1AA2-4B2B-989D-C5DB47B39049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C4B78-FF87-46C8-BFA7-A1A3D7A07DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6685DC73-02EB-42C7-9FF3-CE584FEA71CB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="input" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Casting!$A$1:$R$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Casting!$A$1:$R$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -459,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#&quot; inch&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +570,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="68"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -579,7 +587,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1267,33 +1275,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1426,52 +1412,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1491,6 +1459,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1638,11 +1624,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1685,30 +1677,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1759,9 +1727,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,6 +1738,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1854,6 +1825,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1866,91 +1900,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,7 +1936,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,12 +1948,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1990,6 +1955,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2509,7 +2489,7 @@
   <dimension ref="A1:AJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2525,45 +2505,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="210"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="54">
+        <f>input!C3</f>
+        <v>0</v>
+      </c>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="213" t="s">
+      <c r="I2" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="213"/>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="213"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
       <c r="N2" s="13"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
@@ -2573,103 +2556,103 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="214" t="s">
+      <c r="A3" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="146" t="s">
+      <c r="B3" s="196"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="170"/>
-      <c r="F3" s="146" t="s">
+      <c r="E3" s="165"/>
+      <c r="F3" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="146" t="s">
+      <c r="G3" s="165"/>
+      <c r="H3" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="170"/>
-      <c r="J3" s="146" t="s">
+      <c r="I3" s="165"/>
+      <c r="J3" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="146" t="s">
+      <c r="K3" s="165"/>
+      <c r="L3" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="205"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="215" t="s">
+      <c r="M3" s="196"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="216"/>
-      <c r="Q3" s="215" t="s">
+      <c r="P3" s="208"/>
+      <c r="Q3" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="217"/>
+      <c r="R3" s="209"/>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A4" s="198">
+      <c r="A4" s="189">
         <f>input!C1</f>
         <v>0</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="201">
+      <c r="B4" s="190"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="192">
         <f>input!C2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="202"/>
-      <c r="F4" s="203">
+      <c r="E4" s="193"/>
+      <c r="F4" s="194">
         <f>input!C3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="204"/>
-      <c r="H4" s="206">
+      <c r="G4" s="195"/>
+      <c r="H4" s="197">
         <f>input!C4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="207"/>
-      <c r="J4" s="206">
+      <c r="I4" s="198"/>
+      <c r="J4" s="197">
         <f>input!C5</f>
         <v>0</v>
       </c>
-      <c r="K4" s="207"/>
-      <c r="L4" s="152">
+      <c r="K4" s="198"/>
+      <c r="L4" s="146">
         <f>input!C6</f>
         <v>0</v>
       </c>
-      <c r="M4" s="193"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="154">
+      <c r="M4" s="188"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="148">
         <f>input!C7</f>
         <v>0</v>
       </c>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="161">
+      <c r="P4" s="149"/>
+      <c r="Q4" s="155">
         <f>input!C8</f>
         <v>0</v>
       </c>
-      <c r="R4" s="194"/>
+      <c r="R4" s="210"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="211" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="212"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="197" t="s">
+      <c r="I5" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
       <c r="N5" s="9"/>
       <c r="O5" s="5" t="s">
         <v>32</v>
@@ -2682,61 +2665,61 @@
       <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="146" t="s">
+      <c r="C6" s="165"/>
+      <c r="D6" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="146" t="s">
+      <c r="E6" s="165"/>
+      <c r="F6" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="170"/>
-      <c r="H6" s="146" t="s">
+      <c r="G6" s="165"/>
+      <c r="H6" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="170"/>
-      <c r="J6" s="146" t="s">
+      <c r="I6" s="165"/>
+      <c r="J6" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="170"/>
-      <c r="L6" s="146" t="s">
+      <c r="K6" s="165"/>
+      <c r="L6" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="205"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="146" t="s">
+      <c r="M6" s="196"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="146" t="s">
+      <c r="P6" s="165"/>
+      <c r="Q6" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="149"/>
+      <c r="R6" s="143"/>
     </row>
     <row r="7" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="183"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="178"/>
     </row>
     <row r="8" spans="1:20" ht="18" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -2749,13 +2732,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="184" t="s">
+      <c r="I8" s="179" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
       <c r="N8" s="23"/>
       <c r="O8" s="12" t="s">
         <v>15</v>
@@ -2766,107 +2749,107 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="167" t="s">
+      <c r="C9" s="175"/>
+      <c r="D9" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="180" t="s">
+      <c r="E9" s="162"/>
+      <c r="F9" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180" t="s">
+      <c r="G9" s="175"/>
+      <c r="H9" s="175" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180" t="s">
+      <c r="I9" s="175"/>
+      <c r="J9" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180" t="s">
+      <c r="K9" s="175"/>
+      <c r="L9" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180" t="s">
+      <c r="M9" s="175"/>
+      <c r="N9" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="180"/>
+      <c r="O9" s="175"/>
       <c r="P9" s="87" t="s">
         <v>110</v>
       </c>
       <c r="Q9" s="88"/>
-      <c r="R9" s="191" t="s">
+      <c r="R9" s="186" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A10" s="186"/>
-      <c r="B10" s="187">
+      <c r="A10" s="181"/>
+      <c r="B10" s="182">
         <f>input!C13</f>
         <v>0</v>
       </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="181">
+      <c r="C10" s="183"/>
+      <c r="D10" s="176">
         <f>input!C9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="182"/>
-      <c r="F10" s="181">
+      <c r="E10" s="177"/>
+      <c r="F10" s="176">
         <f>input!C10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="182"/>
-      <c r="H10" s="181">
+      <c r="G10" s="177"/>
+      <c r="H10" s="176">
         <f>input!C15</f>
         <v>0</v>
       </c>
-      <c r="I10" s="182"/>
-      <c r="J10" s="181">
+      <c r="I10" s="177"/>
+      <c r="J10" s="176">
         <f>input!C14</f>
         <v>0</v>
       </c>
-      <c r="K10" s="182"/>
-      <c r="L10" s="181">
+      <c r="K10" s="177"/>
+      <c r="L10" s="176">
         <f>input!C11</f>
         <v>0</v>
       </c>
-      <c r="M10" s="182"/>
-      <c r="N10" s="181">
+      <c r="M10" s="177"/>
+      <c r="N10" s="176">
         <f>input!C12</f>
         <v>0</v>
       </c>
-      <c r="O10" s="182"/>
+      <c r="O10" s="177"/>
       <c r="P10" s="89">
         <f>input!C16</f>
         <v>0</v>
       </c>
       <c r="Q10" s="90"/>
-      <c r="R10" s="192"/>
+      <c r="R10" s="187"/>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
       <c r="P11" s="87"/>
       <c r="Q11" s="88"/>
       <c r="R11" s="84"/>
@@ -2875,20 +2858,20 @@
       <c r="A12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="69"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="91"/>
       <c r="Q12" s="91"/>
       <c r="R12" s="85"/>
@@ -2897,20 +2880,20 @@
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="67"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="91"/>
       <c r="Q13" s="91"/>
       <c r="R13" s="85"/>
@@ -2919,20 +2902,20 @@
       <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="69"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="91"/>
       <c r="Q14" s="91"/>
       <c r="R14" s="85"/>
@@ -2941,18 +2924,18 @@
       <c r="A15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="172"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="167"/>
       <c r="H15" s="119"/>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
       <c r="K15" s="119"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="153"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="147"/>
       <c r="N15" s="119"/>
       <c r="O15" s="119"/>
       <c r="P15" s="92"/>
@@ -2960,23 +2943,23 @@
       <c r="R15" s="86"/>
     </row>
     <row r="16" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="177" t="s">
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
       <c r="N16" s="12" t="s">
         <v>35</v>
       </c>
@@ -2986,32 +2969,32 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="27" customHeight="1">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="173" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="103"/>
       <c r="C17" s="103"/>
       <c r="D17" s="103"/>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="179"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="165" t="s">
+      <c r="F17" s="174"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="158" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="165"/>
+      <c r="J17" s="158"/>
       <c r="K17" s="103"/>
       <c r="L17" s="103"/>
       <c r="M17" s="103" t="s">
         <v>113</v>
       </c>
       <c r="N17" s="103"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="167"/>
-      <c r="R17" s="168"/>
+      <c r="O17" s="157"/>
+      <c r="P17" s="157"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="163"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
@@ -3030,32 +3013,32 @@
       <c r="AJ17" s="32"/>
     </row>
     <row r="18" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174" t="s">
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="174"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="92" t="s">
         <v>63</v>
       </c>
       <c r="J18" s="92"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="120" t="s">
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="N18" s="120"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="140"/>
-      <c r="R18" s="169"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="164"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
@@ -3084,13 +3067,13 @@
       <c r="F19" s="12"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="166" t="s">
+      <c r="I19" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
       <c r="N19" s="31"/>
       <c r="O19" s="12" t="s">
         <v>15</v>
@@ -3181,11 +3164,11 @@
       <c r="M21" s="102"/>
       <c r="N21" s="102"/>
       <c r="O21" s="102"/>
-      <c r="P21" s="120" t="s">
+      <c r="P21" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="121"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="161"/>
       <c r="U21" s="99"/>
       <c r="V21" s="99"/>
       <c r="W21" s="100"/>
@@ -3204,16 +3187,16 @@
       <c r="AJ21" s="32"/>
     </row>
     <row r="22" spans="1:36" ht="27" customHeight="1">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="125" t="s">
+      <c r="B22" s="121"/>
+      <c r="C22" s="127" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="94"/>
       <c r="E22" s="94"/>
-      <c r="F22" s="126"/>
+      <c r="F22" s="128"/>
       <c r="G22" s="118" t="s">
         <v>41</v>
       </c>
@@ -3252,12 +3235,12 @@
       <c r="AJ22" s="32"/>
     </row>
     <row r="23" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="139"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="129"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="119"/>
       <c r="H23" s="92"/>
       <c r="I23" s="92"/>
@@ -3268,8 +3251,8 @@
       <c r="N23" s="92"/>
       <c r="O23" s="92"/>
       <c r="P23" s="119"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="124"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="126"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
@@ -3288,26 +3271,26 @@
       <c r="AJ23" s="32"/>
     </row>
     <row r="24" spans="1:36" ht="27" thickBot="1">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="131"/>
-      <c r="R24" s="132"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="133"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="133"/>
+      <c r="R24" s="134"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -3329,14 +3312,14 @@
       <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135" t="s">
+      <c r="C25" s="136"/>
+      <c r="D25" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="136"/>
+      <c r="E25" s="138"/>
       <c r="F25" s="74" t="s">
         <v>39</v>
       </c>
@@ -3344,7 +3327,7 @@
       <c r="H25" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="122"/>
+      <c r="I25" s="124"/>
       <c r="J25" s="75"/>
       <c r="K25" s="74" t="s">
         <v>35</v>
@@ -3379,17 +3362,17 @@
       <c r="A26" s="27">
         <v>1</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="68"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="78"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="108"/>
       <c r="N26" s="109"/>
       <c r="O26" s="109"/>
@@ -3417,17 +3400,17 @@
       <c r="A27" s="27">
         <v>2</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="68"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="78"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="108"/>
       <c r="N27" s="109"/>
       <c r="O27" s="109"/>
@@ -3455,17 +3438,17 @@
       <c r="A28" s="27">
         <v>3</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="68"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="62"/>
       <c r="I28" s="78"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
       <c r="M28" s="108"/>
       <c r="N28" s="109"/>
       <c r="O28" s="109"/>
@@ -3493,17 +3476,17 @@
       <c r="A29" s="27">
         <v>4</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="68"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="62"/>
       <c r="I29" s="78"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
       <c r="M29" s="108"/>
       <c r="N29" s="109"/>
       <c r="O29" s="109"/>
@@ -3531,17 +3514,17 @@
       <c r="A30" s="27">
         <v>5</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="68"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="78"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
       <c r="M30" s="108"/>
       <c r="N30" s="109"/>
       <c r="O30" s="109"/>
@@ -3569,17 +3552,17 @@
       <c r="A31" s="27">
         <v>6</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="68"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="78"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
       <c r="M31" s="108"/>
       <c r="N31" s="109"/>
       <c r="O31" s="109"/>
@@ -3591,17 +3574,17 @@
       <c r="A32" s="27">
         <v>7</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="68"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="62"/>
       <c r="I32" s="78"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
       <c r="M32" s="108"/>
       <c r="N32" s="109"/>
       <c r="O32" s="109"/>
@@ -3613,17 +3596,17 @@
       <c r="A33" s="27">
         <v>8</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="68"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="78"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
       <c r="M33" s="108"/>
       <c r="N33" s="109"/>
       <c r="O33" s="109"/>
@@ -3635,17 +3618,17 @@
       <c r="A34" s="27">
         <v>9</v>
       </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="68"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="62"/>
       <c r="I34" s="78"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
       <c r="M34" s="108"/>
       <c r="N34" s="109"/>
       <c r="O34" s="109"/>
@@ -3657,17 +3640,17 @@
       <c r="A35" s="27">
         <v>10</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="68"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="62"/>
       <c r="I35" s="78"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
       <c r="M35" s="108"/>
       <c r="N35" s="109"/>
       <c r="O35" s="109"/>
@@ -3679,17 +3662,17 @@
       <c r="A36" s="27">
         <v>11</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="68"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="62"/>
       <c r="I36" s="78"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="65"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="59"/>
       <c r="M36" s="111"/>
       <c r="N36" s="112"/>
       <c r="O36" s="112"/>
@@ -3701,17 +3684,17 @@
       <c r="A37" s="27">
         <v>12</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="68"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="62"/>
       <c r="I37" s="78"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="59"/>
       <c r="M37" s="115" t="s">
         <v>72</v>
       </c>
@@ -3725,17 +3708,17 @@
       <c r="A38" s="27">
         <v>13</v>
       </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="68"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="62"/>
       <c r="I38" s="78"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="59"/>
       <c r="M38" s="114" t="s">
         <v>73</v>
       </c>
@@ -3753,17 +3736,17 @@
       <c r="A39" s="27">
         <v>14</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="68"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="78"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="59"/>
       <c r="M39" s="70"/>
       <c r="N39" s="71"/>
       <c r="O39" s="79"/>
@@ -3775,17 +3758,17 @@
       <c r="A40" s="27">
         <v>15</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="68"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="78"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="65"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="59"/>
       <c r="M40" s="70"/>
       <c r="N40" s="71"/>
       <c r="O40" s="79"/>
@@ -3797,17 +3780,17 @@
       <c r="A41" s="27">
         <v>16</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="68"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="62"/>
       <c r="I41" s="78"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="65"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="59"/>
       <c r="M41" s="70"/>
       <c r="N41" s="71"/>
       <c r="O41" s="79"/>
@@ -3819,17 +3802,17 @@
       <c r="A42" s="27">
         <v>17</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="68"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="62"/>
       <c r="I42" s="78"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="65"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="59"/>
       <c r="M42" s="70"/>
       <c r="N42" s="71"/>
       <c r="O42" s="79"/>
@@ -3841,17 +3824,17 @@
       <c r="A43" s="33">
         <v>18</v>
       </c>
-      <c r="B43" s="152"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="160"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="154"/>
       <c r="M43" s="72"/>
       <c r="N43" s="73"/>
       <c r="O43" s="80"/>
@@ -3860,61 +3843,61 @@
       <c r="R43" s="83"/>
     </row>
     <row r="44" spans="1:18" ht="28.5">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="157"/>
-      <c r="O44" s="157"/>
-      <c r="P44" s="157"/>
-      <c r="Q44" s="157"/>
-      <c r="R44" s="158"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="152"/>
     </row>
     <row r="45" spans="1:18" ht="17.25">
-      <c r="A45" s="162" t="s">
+      <c r="A45" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="146" t="s">
+      <c r="C45" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="147" t="s">
+      <c r="D45" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
-      <c r="J45" s="148"/>
-      <c r="K45" s="148"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="148"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="148"/>
-      <c r="Q45" s="148"/>
-      <c r="R45" s="149" t="s">
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="142"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="142"/>
+      <c r="M45" s="142"/>
+      <c r="N45" s="142"/>
+      <c r="O45" s="142"/>
+      <c r="P45" s="142"/>
+      <c r="Q45" s="142"/>
+      <c r="R45" s="143" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17.25">
-      <c r="A46" s="163"/>
-      <c r="B46" s="145"/>
-      <c r="C46" s="66"/>
+      <c r="A46" s="156"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="60"/>
       <c r="D46" s="26" t="s">
         <v>0</v>
       </c>
@@ -3951,17 +3934,17 @@
       <c r="O46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P46" s="151" t="s">
+      <c r="P46" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="Q46" s="151"/>
-      <c r="R46" s="150"/>
+      <c r="Q46" s="145"/>
+      <c r="R46" s="144"/>
     </row>
     <row r="47" spans="1:18" ht="27" customHeight="1">
-      <c r="A47" s="220" t="s">
+      <c r="A47" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="144" t="s">
+      <c r="B47" s="67" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -3981,11 +3964,11 @@
       <c r="O47" s="26"/>
       <c r="P47" s="89"/>
       <c r="Q47" s="90"/>
-      <c r="R47" s="218"/>
+      <c r="R47" s="64"/>
     </row>
     <row r="48" spans="1:18" ht="27" customHeight="1">
-      <c r="A48" s="221"/>
-      <c r="B48" s="145"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="139"/>
       <c r="C48" s="22" t="s">
         <v>22</v>
       </c>
@@ -4001,9 +3984,9 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="222"/>
-      <c r="Q48" s="223"/>
-      <c r="R48" s="219"/>
+      <c r="P48" s="199"/>
+      <c r="Q48" s="200"/>
+      <c r="R48" s="65"/>
     </row>
     <row r="49" spans="1:18" ht="27" customHeight="1">
       <c r="A49" s="20" t="s">
@@ -4027,8 +4010,8 @@
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="222"/>
-      <c r="Q49" s="223"/>
+      <c r="P49" s="199"/>
+      <c r="Q49" s="200"/>
       <c r="R49" s="35"/>
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1">
@@ -4053,8 +4036,8 @@
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="222"/>
-      <c r="Q50" s="223"/>
+      <c r="P50" s="199"/>
+      <c r="Q50" s="200"/>
       <c r="R50" s="35"/>
     </row>
     <row r="51" spans="1:18" ht="27" customHeight="1">
@@ -4079,12 +4062,12 @@
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="222"/>
-      <c r="Q51" s="223"/>
+      <c r="P51" s="199"/>
+      <c r="Q51" s="200"/>
       <c r="R51" s="35"/>
     </row>
     <row r="52" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A52" s="162" t="s">
+      <c r="A52" s="66" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -4105,12 +4088,12 @@
       <c r="M52" s="30"/>
       <c r="N52" s="30"/>
       <c r="O52" s="30"/>
-      <c r="P52" s="222"/>
-      <c r="Q52" s="223"/>
-      <c r="R52" s="218"/>
+      <c r="P52" s="199"/>
+      <c r="Q52" s="200"/>
+      <c r="R52" s="64"/>
     </row>
     <row r="53" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A53" s="162"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="21" t="s">
         <v>86</v>
       </c>
@@ -4129,15 +4112,15 @@
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
-      <c r="P53" s="222"/>
-      <c r="Q53" s="223"/>
-      <c r="R53" s="219"/>
+      <c r="P53" s="199"/>
+      <c r="Q53" s="200"/>
+      <c r="R53" s="65"/>
     </row>
     <row r="54" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A54" s="162" t="s">
+      <c r="A54" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="144" t="s">
+      <c r="B54" s="67" t="s">
         <v>83</v>
       </c>
       <c r="C54" s="34" t="s">
@@ -4155,13 +4138,13 @@
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
-      <c r="P54" s="222"/>
-      <c r="Q54" s="223"/>
-      <c r="R54" s="218"/>
+      <c r="P54" s="199"/>
+      <c r="Q54" s="200"/>
+      <c r="R54" s="64"/>
     </row>
     <row r="55" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A55" s="162"/>
-      <c r="B55" s="144"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
       <c r="C55" s="34" t="s">
         <v>22</v>
       </c>
@@ -4177,15 +4160,15 @@
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
-      <c r="P55" s="222"/>
-      <c r="Q55" s="223"/>
-      <c r="R55" s="219"/>
+      <c r="P55" s="199"/>
+      <c r="Q55" s="200"/>
+      <c r="R55" s="65"/>
     </row>
     <row r="56" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A56" s="162" t="s">
+      <c r="A56" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="144" t="s">
+      <c r="B56" s="67" t="s">
         <v>84</v>
       </c>
       <c r="C56" s="34">
@@ -4203,13 +4186,13 @@
       <c r="M56" s="30"/>
       <c r="N56" s="30"/>
       <c r="O56" s="30"/>
-      <c r="P56" s="222"/>
-      <c r="Q56" s="223"/>
-      <c r="R56" s="218"/>
+      <c r="P56" s="199"/>
+      <c r="Q56" s="200"/>
+      <c r="R56" s="64"/>
     </row>
     <row r="57" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A57" s="162"/>
-      <c r="B57" s="144"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="67"/>
       <c r="C57" s="34">
         <v>600</v>
       </c>
@@ -4225,15 +4208,15 @@
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
       <c r="O57" s="30"/>
-      <c r="P57" s="222"/>
-      <c r="Q57" s="223"/>
-      <c r="R57" s="219"/>
+      <c r="P57" s="199"/>
+      <c r="Q57" s="200"/>
+      <c r="R57" s="65"/>
     </row>
     <row r="58" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A58" s="162" t="s">
+      <c r="A58" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="144" t="s">
+      <c r="B58" s="67" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="34" t="s">
@@ -4251,13 +4234,13 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="222"/>
-      <c r="Q58" s="223"/>
-      <c r="R58" s="218"/>
+      <c r="P58" s="199"/>
+      <c r="Q58" s="200"/>
+      <c r="R58" s="64"/>
     </row>
     <row r="59" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A59" s="162"/>
-      <c r="B59" s="144"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
       <c r="C59" s="34" t="s">
         <v>49</v>
       </c>
@@ -4273,16 +4256,16 @@
       <c r="M59" s="30"/>
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
-      <c r="P59" s="222"/>
-      <c r="Q59" s="223"/>
-      <c r="R59" s="219"/>
+      <c r="P59" s="199"/>
+      <c r="Q59" s="200"/>
+      <c r="R59" s="65"/>
     </row>
     <row r="60" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A60" s="224" t="s">
+      <c r="A60" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="188"/>
-      <c r="C60" s="225"/>
+      <c r="B60" s="183"/>
+      <c r="C60" s="202"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4295,115 +4278,115 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="222"/>
-      <c r="Q60" s="223"/>
+      <c r="P60" s="199"/>
+      <c r="Q60" s="200"/>
       <c r="R60" s="25"/>
     </row>
     <row r="61" spans="1:18" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A61" s="141" t="s">
+      <c r="A61" s="214" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="142"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="142"/>
-      <c r="I61" s="142"/>
-      <c r="J61" s="142"/>
-      <c r="K61" s="142"/>
-      <c r="L61" s="142"/>
-      <c r="M61" s="142"/>
-      <c r="N61" s="142"/>
-      <c r="O61" s="142"/>
-      <c r="P61" s="142"/>
-      <c r="Q61" s="142"/>
-      <c r="R61" s="143"/>
-    </row>
-    <row r="62" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A62" s="50" t="s">
+      <c r="B61" s="215"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="215"/>
+      <c r="E61" s="215"/>
+      <c r="F61" s="215"/>
+      <c r="G61" s="215"/>
+      <c r="H61" s="215"/>
+      <c r="I61" s="215"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="215"/>
+      <c r="N61" s="215"/>
+      <c r="O61" s="215"/>
+      <c r="P61" s="215"/>
+      <c r="Q61" s="215"/>
+      <c r="R61" s="234"/>
+    </row>
+    <row r="62" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A62" s="216" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="217" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="218" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="221" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="51" t="s">
+      <c r="F62" s="217" t="s">
         <v>131</v>
       </c>
-      <c r="G62" s="52" t="s">
+      <c r="G62" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="H62" s="53" t="s">
+      <c r="H62" s="226" t="s">
         <v>133</v>
       </c>
-      <c r="I62" s="54" t="s">
+      <c r="I62" s="216" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="51" t="s">
+      <c r="J62" s="217" t="s">
         <v>131</v>
       </c>
-      <c r="K62" s="52" t="s">
+      <c r="K62" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="L62" s="55" t="s">
+      <c r="L62" s="218" t="s">
         <v>133</v>
       </c>
-      <c r="M62" s="50" t="s">
+      <c r="M62" s="221" t="s">
         <v>130</v>
       </c>
-      <c r="N62" s="51" t="s">
+      <c r="N62" s="217" t="s">
         <v>131</v>
       </c>
-      <c r="O62" s="52" t="s">
+      <c r="O62" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="P62" s="53" t="s">
+      <c r="P62" s="218" t="s">
         <v>133</v>
       </c>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="61"/>
+      <c r="Q62" s="235"/>
+      <c r="R62" s="236"/>
     </row>
     <row r="63" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A63" s="56">
+      <c r="A63" s="51">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="226">
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="219"/>
+      <c r="E63" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="231"/>
-      <c r="I63" s="235">
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="227"/>
+      <c r="I63" s="38">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="236"/>
-      <c r="M63" s="226">
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="230"/>
+      <c r="M63" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N63" s="57"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="63"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="219"/>
+      <c r="Q63" s="233"/>
+      <c r="R63" s="56"/>
     </row>
     <row r="64" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="A64" s="38">
@@ -4412,30 +4395,30 @@
       </c>
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="227">
+      <c r="D64" s="219"/>
+      <c r="E64" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="42"/>
-      <c r="H64" s="232"/>
+      <c r="H64" s="227"/>
       <c r="I64" s="38">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="J64" s="42"/>
       <c r="K64" s="42"/>
-      <c r="L64" s="237"/>
-      <c r="M64" s="227">
+      <c r="L64" s="230"/>
+      <c r="M64" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="N64" s="42"/>
       <c r="O64" s="43"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="63"/>
+      <c r="P64" s="219"/>
+      <c r="Q64" s="233"/>
+      <c r="R64" s="56"/>
     </row>
     <row r="65" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="A65" s="39">
@@ -4444,30 +4427,30 @@
       </c>
       <c r="B65" s="44"/>
       <c r="C65" s="43"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="228">
+      <c r="D65" s="225"/>
+      <c r="E65" s="223">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="44"/>
-      <c r="H65" s="233"/>
+      <c r="H65" s="228"/>
       <c r="I65" s="39">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="J65" s="42"/>
       <c r="K65" s="44"/>
-      <c r="L65" s="237"/>
-      <c r="M65" s="227">
+      <c r="L65" s="230"/>
+      <c r="M65" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="N65" s="44"/>
       <c r="O65" s="43"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="63"/>
+      <c r="P65" s="219"/>
+      <c r="Q65" s="233"/>
+      <c r="R65" s="56"/>
     </row>
     <row r="66" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
       <c r="A66" s="38">
@@ -4476,224 +4459,284 @@
       </c>
       <c r="B66" s="42"/>
       <c r="C66" s="47"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="227">
+      <c r="D66" s="219"/>
+      <c r="E66" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="F66" s="47"/>
       <c r="G66" s="42"/>
-      <c r="H66" s="232"/>
+      <c r="H66" s="227"/>
       <c r="I66" s="38">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="J66" s="42"/>
       <c r="K66" s="42"/>
-      <c r="L66" s="238"/>
-      <c r="M66" s="227">
+      <c r="L66" s="231"/>
+      <c r="M66" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
       <c r="N66" s="42"/>
       <c r="O66" s="47"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="63"/>
-    </row>
-    <row r="67" spans="1:18" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A67" s="40">
+      <c r="P66" s="219"/>
+      <c r="Q66" s="233"/>
+      <c r="R66" s="56"/>
+    </row>
+    <row r="67" spans="1:18" ht="24.95" customHeight="1">
+      <c r="A67" s="38">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="229">
+      <c r="B67" s="42"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="219"/>
+      <c r="E67" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F67" s="46"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="234"/>
-      <c r="I67" s="40">
+      <c r="F67" s="47"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="227"/>
+      <c r="I67" s="38">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="239"/>
-      <c r="M67" s="229">
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="231"/>
+      <c r="M67" s="222">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N67" s="45"/>
-      <c r="O67" s="46"/>
-      <c r="P67" s="49"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="63"/>
-    </row>
-    <row r="68" spans="1:18" ht="15" customHeight="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-    </row>
-    <row r="69" spans="1:18" ht="15" customHeight="1">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-    </row>
-    <row r="70" spans="1:18" ht="15" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-    </row>
-    <row r="71" spans="1:18" ht="15" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-    </row>
-    <row r="72" spans="1:18" ht="15" customHeight="1">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-    </row>
-    <row r="73" spans="1:18" ht="15" customHeight="1">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="219"/>
+      <c r="Q67" s="233"/>
+      <c r="R67" s="56"/>
+    </row>
+    <row r="68" spans="1:18" ht="24.95" customHeight="1">
+      <c r="A68" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B68" s="42"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="219"/>
+      <c r="E68" s="222">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="47"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="227"/>
+      <c r="I68" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="231"/>
+      <c r="M68" s="222">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="42"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="219"/>
+      <c r="Q68" s="233"/>
+      <c r="R68" s="56"/>
+    </row>
+    <row r="69" spans="1:18" ht="24.95" customHeight="1">
+      <c r="A69" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B69" s="42"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="219"/>
+      <c r="E69" s="222">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="47"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="227"/>
+      <c r="I69" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="231"/>
+      <c r="M69" s="222">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="42"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="219"/>
+      <c r="Q69" s="233"/>
+      <c r="R69" s="56"/>
+    </row>
+    <row r="70" spans="1:18" ht="24.95" customHeight="1">
+      <c r="A70" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="219"/>
+      <c r="E70" s="222">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="47"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="227"/>
+      <c r="I70" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="231"/>
+      <c r="M70" s="222">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="42"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="219"/>
+      <c r="Q70" s="233"/>
+      <c r="R70" s="56"/>
+    </row>
+    <row r="71" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A71" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B71" s="42"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="219"/>
+      <c r="E71" s="222">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="47"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="227"/>
+      <c r="I71" s="38">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="231"/>
+      <c r="M71" s="222">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="42"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="219"/>
+      <c r="Q71" s="233"/>
+      <c r="R71" s="56"/>
+    </row>
+    <row r="72" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A72" s="40">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="B72" s="45"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="220"/>
+      <c r="E72" s="224">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="46"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="229"/>
+      <c r="I72" s="40">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="232"/>
+      <c r="M72" s="224">
+        <f>input!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="45"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="220"/>
+      <c r="Q72" s="237"/>
+      <c r="R72" s="57"/>
+    </row>
+    <row r="73" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A73" s="49"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="49"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
     </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
+    <row r="74" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="50"/>
+      <c r="P74" s="49"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
     </row>
-    <row r="75" spans="1:18" ht="15" customHeight="1">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
+    <row r="75" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="49"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
     </row>
-    <row r="76" spans="1:18" ht="15" customHeight="1">
+    <row r="76" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4935,14 +4978,14 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="291">
+  <mergeCells count="292">
+    <mergeCell ref="Q62:R72"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="P47:Q60"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:C3"/>
@@ -5060,6 +5103,7 @@
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="O17:P17"/>
+    <mergeCell ref="P21:R21"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="H37:J37"/>
     <mergeCell ref="H38:J38"/>
@@ -5081,6 +5125,9 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B37:C37"/>
@@ -5141,7 +5188,6 @@
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M25:R36"/>
     <mergeCell ref="M38:N38"/>
@@ -5150,7 +5196,6 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="P22:P23"/>
-    <mergeCell ref="P21:R21"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="AC20:AC21"/>
@@ -5179,9 +5224,8 @@
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="O38:P38"/>
@@ -5203,7 +5247,9 @@
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="Q62:R67"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="K42:L42"/>
@@ -5225,12 +5271,10 @@
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A47:A48"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Plan/py/excel_file.xlsx
+++ b/Plan/py/excel_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Billet_Casting\Plan\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0C4B78-FF87-46C8-BFA7-A1A3D7A07DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F53AE66-D881-4D46-8233-E481C4C4F3DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6685DC73-02EB-42C7-9FF3-CE584FEA71CB}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
   <si>
     <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>SL</t>
+  </si>
+  <si>
+    <t>Tổng khối lượng vật liệu</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1213,19 +1216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1279,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1353,9 +1343,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,35 +1411,230 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1460,17 +1642,242 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1478,499 +1885,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2505,48 +2483,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="218" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="54">
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="220">
         <f>input!C3</f>
         <v>0</v>
       </c>
-      <c r="R1" s="55"/>
+      <c r="R1" s="221"/>
     </row>
     <row r="2" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="205" t="s">
+      <c r="I2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="13"/>
       <c r="O2" s="12" t="s">
         <v>15</v>
@@ -2556,103 +2534,103 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A3" s="206" t="s">
+      <c r="A3" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="140" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="140" t="s">
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="165"/>
-      <c r="H3" s="140" t="s">
+      <c r="G3" s="90"/>
+      <c r="H3" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="165"/>
-      <c r="J3" s="140" t="s">
+      <c r="I3" s="90"/>
+      <c r="J3" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="165"/>
-      <c r="L3" s="140" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="196"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="207" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="207" t="s">
+      <c r="P3" s="93"/>
+      <c r="Q3" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="209"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A4" s="189">
+      <c r="A4" s="101">
         <f>input!C1</f>
         <v>0</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="192">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104">
         <f>input!C2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="193"/>
-      <c r="F4" s="194">
+      <c r="E4" s="105"/>
+      <c r="F4" s="108">
         <f>input!C3</f>
         <v>0</v>
       </c>
-      <c r="G4" s="195"/>
-      <c r="H4" s="197">
+      <c r="G4" s="109"/>
+      <c r="H4" s="113">
         <f>input!C4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="198"/>
-      <c r="J4" s="197">
+      <c r="I4" s="114"/>
+      <c r="J4" s="113">
         <f>input!C5</f>
         <v>0</v>
       </c>
-      <c r="K4" s="198"/>
-      <c r="L4" s="146">
+      <c r="K4" s="114"/>
+      <c r="L4" s="110">
         <f>input!C6</f>
         <v>0</v>
       </c>
-      <c r="M4" s="188"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="148">
+      <c r="M4" s="111"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="106">
         <f>input!C7</f>
         <v>0</v>
       </c>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="155">
+      <c r="P4" s="107"/>
+      <c r="Q4" s="95">
         <f>input!C8</f>
         <v>0</v>
       </c>
-      <c r="R4" s="210"/>
+      <c r="R4" s="96"/>
     </row>
     <row r="5" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A5" s="211" t="s">
+      <c r="A5" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="212"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="213" t="s">
+      <c r="I5" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="9"/>
       <c r="O5" s="5" t="s">
         <v>32</v>
@@ -2665,61 +2643,61 @@
       <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="140" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="165"/>
-      <c r="F6" s="140" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="165"/>
-      <c r="H6" s="140" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="165"/>
-      <c r="J6" s="140" t="s">
+      <c r="I6" s="90"/>
+      <c r="J6" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="165"/>
-      <c r="L6" s="140" t="s">
+      <c r="K6" s="90"/>
+      <c r="L6" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="196"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="140" t="s">
+      <c r="M6" s="89"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="90"/>
+      <c r="Q6" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="R6" s="143"/>
+      <c r="R6" s="100"/>
     </row>
     <row r="7" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="178"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="115"/>
     </row>
     <row r="8" spans="1:20" ht="18" thickBot="1">
       <c r="A8" s="18" t="s">
@@ -2732,13 +2710,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="179" t="s">
+      <c r="I8" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
       <c r="N8" s="23"/>
       <c r="O8" s="12" t="s">
         <v>15</v>
@@ -2749,217 +2727,217 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" ht="17.25" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="175"/>
-      <c r="D9" s="162" t="s">
+      <c r="C9" s="119"/>
+      <c r="D9" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="175" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175" t="s">
+      <c r="G9" s="119"/>
+      <c r="H9" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175" t="s">
+      <c r="I9" s="119"/>
+      <c r="J9" s="119" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175" t="s">
+      <c r="K9" s="119"/>
+      <c r="L9" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175" t="s">
+      <c r="M9" s="119"/>
+      <c r="N9" s="119" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="175"/>
-      <c r="P9" s="87" t="s">
+      <c r="O9" s="119"/>
+      <c r="P9" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="186" t="s">
+      <c r="Q9" s="207"/>
+      <c r="R9" s="124" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A10" s="181"/>
-      <c r="B10" s="182">
+      <c r="A10" s="118"/>
+      <c r="B10" s="121">
         <f>input!C13</f>
         <v>0</v>
       </c>
-      <c r="C10" s="183"/>
-      <c r="D10" s="176">
+      <c r="C10" s="82"/>
+      <c r="D10" s="128">
         <f>input!C9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="177"/>
-      <c r="F10" s="176">
+      <c r="E10" s="129"/>
+      <c r="F10" s="128">
         <f>input!C10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="177"/>
-      <c r="H10" s="176">
+      <c r="G10" s="129"/>
+      <c r="H10" s="128">
         <f>input!C15</f>
         <v>0</v>
       </c>
-      <c r="I10" s="177"/>
-      <c r="J10" s="176">
+      <c r="I10" s="129"/>
+      <c r="J10" s="128">
         <f>input!C14</f>
         <v>0</v>
       </c>
-      <c r="K10" s="177"/>
-      <c r="L10" s="176">
+      <c r="K10" s="129"/>
+      <c r="L10" s="128">
         <f>input!C11</f>
         <v>0</v>
       </c>
-      <c r="M10" s="177"/>
-      <c r="N10" s="176">
+      <c r="M10" s="129"/>
+      <c r="N10" s="128">
         <f>input!C12</f>
         <v>0</v>
       </c>
-      <c r="O10" s="177"/>
-      <c r="P10" s="89">
+      <c r="O10" s="129"/>
+      <c r="P10" s="77">
         <f>input!C16</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="187"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="125"/>
     </row>
     <row r="11" spans="1:20" ht="27" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="84"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="206"/>
+      <c r="Q11" s="207"/>
+      <c r="R11" s="203"/>
     </row>
     <row r="12" spans="1:20" ht="27" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="91"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="85"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="208"/>
+      <c r="Q12" s="208"/>
+      <c r="R12" s="204"/>
     </row>
     <row r="13" spans="1:20" ht="27" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="85"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="208"/>
+      <c r="Q13" s="208"/>
+      <c r="R13" s="204"/>
     </row>
     <row r="14" spans="1:20" ht="27" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="85"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="208"/>
+      <c r="Q14" s="208"/>
+      <c r="R14" s="204"/>
     </row>
     <row r="15" spans="1:20" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="119"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="86"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="205"/>
     </row>
     <row r="16" spans="1:20" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A16" s="170" t="s">
+      <c r="A16" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="172" t="s">
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
       <c r="N16" s="12" t="s">
         <v>35</v>
       </c>
@@ -2969,92 +2947,92 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="27" customHeight="1">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="174" t="s">
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="174"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="158" t="s">
+      <c r="F17" s="148"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="158"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103" t="s">
+      <c r="J17" s="151"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="N17" s="103"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="163"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="132"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="31"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="31"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="31"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="31"/>
     </row>
     <row r="18" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A18" s="168" t="s">
+      <c r="A18" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169" t="s">
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="92" t="s">
+      <c r="F18" s="140"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="92"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="160" t="s">
+      <c r="J18" s="138"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="N18" s="160"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="164"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="134"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
     </row>
     <row r="19" spans="1:36" ht="21.95" customHeight="1" thickBot="1">
       <c r="A19" s="18" t="s">
@@ -3067,884 +3045,884 @@
       <c r="F19" s="12"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="159" t="s">
+      <c r="I19" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="31"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="30"/>
       <c r="O19" s="12" t="s">
         <v>15</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="1"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="31"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="31"/>
     </row>
     <row r="20" spans="1:36" ht="27" customHeight="1">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96" t="s">
+      <c r="B20" s="195"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="101" t="s">
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="103" t="s">
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
+      <c r="N20" s="200"/>
+      <c r="O20" s="200"/>
+      <c r="P20" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="104"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="99"/>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="202"/>
+      <c r="U20" s="198"/>
+      <c r="V20" s="198"/>
+      <c r="W20" s="199"/>
+      <c r="X20" s="198"/>
+      <c r="Y20" s="198"/>
+      <c r="Z20" s="198"/>
+      <c r="AA20" s="193"/>
+      <c r="AB20" s="193"/>
+      <c r="AC20" s="193"/>
+      <c r="AD20" s="166"/>
+      <c r="AE20" s="166"/>
+      <c r="AF20" s="166"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="31"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="31"/>
     </row>
     <row r="21" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="196" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98" t="s">
+      <c r="B21" s="197"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="102" t="s">
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="201" t="s">
         <v>94</v>
       </c>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="160" t="s">
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="141" t="s">
         <v>98</v>
       </c>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="161"/>
-      <c r="U21" s="99"/>
-      <c r="V21" s="99"/>
-      <c r="W21" s="100"/>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
+      <c r="Q21" s="141"/>
+      <c r="R21" s="153"/>
+      <c r="U21" s="198"/>
+      <c r="V21" s="198"/>
+      <c r="W21" s="199"/>
+      <c r="X21" s="198"/>
+      <c r="Y21" s="198"/>
+      <c r="Z21" s="198"/>
+      <c r="AA21" s="193"/>
+      <c r="AB21" s="193"/>
+      <c r="AC21" s="193"/>
+      <c r="AD21" s="166"/>
+      <c r="AE21" s="166"/>
+      <c r="AF21" s="166"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
     </row>
     <row r="22" spans="1:36" ht="27" customHeight="1">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="127" t="s">
+      <c r="B22" s="179"/>
+      <c r="C22" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="118" t="s">
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118" t="s">
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118" t="s">
+      <c r="K22" s="150"/>
+      <c r="L22" s="150"/>
+      <c r="M22" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118" t="s">
+      <c r="N22" s="150"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="77"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
+      <c r="Q22" s="212"/>
+      <c r="R22" s="213"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
     </row>
     <row r="23" spans="1:36" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="119"/>
-      <c r="Q23" s="125"/>
-      <c r="R23" s="126"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
+      <c r="A23" s="180"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="164"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
     </row>
     <row r="24" spans="1:36" ht="27" thickBot="1">
-      <c r="A24" s="132" t="s">
+      <c r="A24" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="133"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="133"/>
-      <c r="R24" s="134"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="173"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
     </row>
     <row r="25" spans="1:36" ht="17.25" customHeight="1">
       <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="174" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="137" t="s">
+      <c r="C25" s="175"/>
+      <c r="D25" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="138"/>
-      <c r="F25" s="74" t="s">
+      <c r="E25" s="177"/>
+      <c r="F25" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="74" t="s">
+      <c r="G25" s="182"/>
+      <c r="H25" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="124"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="105" t="s">
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="192"/>
+      <c r="M25" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="107"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
+      <c r="N25" s="184"/>
+      <c r="O25" s="184"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="185"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
     </row>
     <row r="26" spans="1:36" ht="27" customHeight="1">
-      <c r="A26" s="27">
+      <c r="A26" s="51">
         <v>1</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="110"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="227"/>
+      <c r="M26" s="186"/>
+      <c r="N26" s="186"/>
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="187"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
     </row>
     <row r="27" spans="1:36" ht="27" customHeight="1">
-      <c r="A27" s="27">
+      <c r="A27" s="51">
         <v>2</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="110"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="227"/>
+      <c r="M27" s="186"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="187"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
     </row>
     <row r="28" spans="1:36" ht="27" customHeight="1">
-      <c r="A28" s="27">
+      <c r="A28" s="51">
         <v>3</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="110"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="227"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186"/>
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="187"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
     </row>
     <row r="29" spans="1:36" ht="27" customHeight="1">
-      <c r="A29" s="27">
+      <c r="A29" s="51">
         <v>4</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="110"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="227"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="187"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="31"/>
+      <c r="AI29" s="31"/>
+      <c r="AJ29" s="31"/>
     </row>
     <row r="30" spans="1:36" ht="27" customHeight="1">
-      <c r="A30" s="27">
+      <c r="A30" s="51">
         <v>5</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="110"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="227"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="186"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="187"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
     </row>
     <row r="31" spans="1:36" ht="27" customHeight="1">
-      <c r="A31" s="27">
+      <c r="A31" s="51">
         <v>6</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="110"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="227"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="187"/>
     </row>
     <row r="32" spans="1:36" ht="27" customHeight="1">
-      <c r="A32" s="27">
+      <c r="A32" s="51">
         <v>7</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="110"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="227"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="186"/>
+      <c r="P32" s="186"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="187"/>
     </row>
     <row r="33" spans="1:18" ht="27" customHeight="1">
-      <c r="A33" s="27">
+      <c r="A33" s="51">
         <v>8</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="110"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="227"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="186"/>
+      <c r="O33" s="186"/>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="187"/>
     </row>
     <row r="34" spans="1:18" ht="27" customHeight="1">
-      <c r="A34" s="27">
+      <c r="A34" s="51">
         <v>9</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="110"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="227"/>
+      <c r="M34" s="186"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="186"/>
+      <c r="P34" s="186"/>
+      <c r="Q34" s="186"/>
+      <c r="R34" s="187"/>
     </row>
     <row r="35" spans="1:18" ht="27" customHeight="1">
-      <c r="A35" s="27">
+      <c r="A35" s="51">
         <v>10</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="110"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="227"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="187"/>
     </row>
     <row r="36" spans="1:18" ht="27" customHeight="1" thickBot="1">
-      <c r="A36" s="27">
+      <c r="A36" s="51">
         <v>11</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="112"/>
-      <c r="O36" s="112"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="112"/>
-      <c r="R36" s="113"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="227"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="188"/>
+      <c r="O36" s="188"/>
+      <c r="P36" s="188"/>
+      <c r="Q36" s="188"/>
+      <c r="R36" s="189"/>
     </row>
     <row r="37" spans="1:18" ht="27" customHeight="1" thickBot="1">
-      <c r="A37" s="27">
+      <c r="A37" s="51">
         <v>12</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="115" t="s">
+      <c r="B37" s="130"/>
+      <c r="C37" s="131"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="227"/>
+      <c r="M37" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="117"/>
+      <c r="N37" s="190"/>
+      <c r="O37" s="190"/>
+      <c r="P37" s="190"/>
+      <c r="Q37" s="190"/>
+      <c r="R37" s="191"/>
     </row>
     <row r="38" spans="1:18" ht="27" customHeight="1">
-      <c r="A38" s="27">
+      <c r="A38" s="51">
         <v>13</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="114" t="s">
+      <c r="B38" s="130"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="126"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="227"/>
+      <c r="M38" s="183" t="s">
         <v>73</v>
       </c>
-      <c r="N38" s="75"/>
-      <c r="O38" s="74" t="s">
+      <c r="N38" s="182"/>
+      <c r="O38" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="74" t="s">
+      <c r="P38" s="182"/>
+      <c r="Q38" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="R38" s="81"/>
+      <c r="R38" s="192"/>
     </row>
     <row r="39" spans="1:18" ht="27" customHeight="1">
-      <c r="A39" s="27">
+      <c r="A39" s="51">
         <v>14</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="79"/>
-      <c r="R39" s="82"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="227"/>
+      <c r="M39" s="228"/>
+      <c r="N39" s="163"/>
+      <c r="O39" s="214"/>
+      <c r="P39" s="163"/>
+      <c r="Q39" s="214"/>
+      <c r="R39" s="216"/>
     </row>
     <row r="40" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
-      <c r="A40" s="27">
+      <c r="A40" s="51">
         <v>15</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="82"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
+      <c r="K40" s="230" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40" s="231"/>
+      <c r="M40" s="228"/>
+      <c r="N40" s="163"/>
+      <c r="O40" s="214"/>
+      <c r="P40" s="163"/>
+      <c r="Q40" s="214"/>
+      <c r="R40" s="216"/>
     </row>
     <row r="41" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
-      <c r="A41" s="27">
+      <c r="A41" s="51">
         <v>16</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="82"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
+      <c r="K41" s="230"/>
+      <c r="L41" s="231"/>
+      <c r="M41" s="228"/>
+      <c r="N41" s="163"/>
+      <c r="O41" s="214"/>
+      <c r="P41" s="163"/>
+      <c r="Q41" s="214"/>
+      <c r="R41" s="216"/>
     </row>
     <row r="42" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1">
-      <c r="A42" s="27">
+      <c r="A42" s="51">
         <v>17</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="82"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
+      <c r="K42" s="230"/>
+      <c r="L42" s="231"/>
+      <c r="M42" s="228"/>
+      <c r="N42" s="163"/>
+      <c r="O42" s="214"/>
+      <c r="P42" s="163"/>
+      <c r="Q42" s="214"/>
+      <c r="R42" s="216"/>
     </row>
     <row r="43" spans="1:18" ht="27" customHeight="1" thickBot="1">
-      <c r="A43" s="33">
+      <c r="A43" s="32">
         <v>18</v>
       </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="80"/>
-      <c r="R43" s="83"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="232"/>
+      <c r="L43" s="233"/>
+      <c r="M43" s="229"/>
+      <c r="N43" s="211"/>
+      <c r="O43" s="215"/>
+      <c r="P43" s="211"/>
+      <c r="Q43" s="215"/>
+      <c r="R43" s="217"/>
     </row>
     <row r="44" spans="1:18" ht="28.5">
-      <c r="A44" s="150" t="s">
+      <c r="A44" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="152"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
+      <c r="K44" s="160"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="160"/>
+      <c r="Q44" s="160"/>
+      <c r="R44" s="161"/>
     </row>
     <row r="45" spans="1:18" ht="17.25">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="140" t="s">
+      <c r="C45" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="141" t="s">
+      <c r="D45" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="142"/>
-      <c r="K45" s="142"/>
-      <c r="L45" s="142"/>
-      <c r="M45" s="142"/>
-      <c r="N45" s="142"/>
-      <c r="O45" s="142"/>
-      <c r="P45" s="142"/>
-      <c r="Q45" s="142"/>
-      <c r="R45" s="143" t="s">
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="156"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="156"/>
+      <c r="R45" s="100" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17.25">
-      <c r="A46" s="156"/>
-      <c r="B46" s="139"/>
-      <c r="C46" s="60"/>
+      <c r="A46" s="162"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="28" t="s">
+      <c r="F46" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I46" s="28" t="s">
+      <c r="I46" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J46" s="28" t="s">
+      <c r="J46" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K46" s="28" t="s">
+      <c r="K46" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="L46" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="28" t="s">
+      <c r="M46" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="28" t="s">
+      <c r="N46" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="28" t="s">
+      <c r="O46" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="P46" s="145" t="s">
+      <c r="P46" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="Q46" s="145"/>
-      <c r="R46" s="144"/>
+      <c r="Q46" s="158"/>
+      <c r="R46" s="157"/>
     </row>
     <row r="47" spans="1:18" ht="27" customHeight="1">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="75" t="s">
         <v>24</v>
       </c>
       <c r="C47" s="22" t="s">
@@ -3962,13 +3940,13 @@
       <c r="M47" s="26"/>
       <c r="N47" s="26"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="89"/>
-      <c r="Q47" s="90"/>
-      <c r="R47" s="64"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="225"/>
     </row>
     <row r="48" spans="1:18" ht="27" customHeight="1">
-      <c r="A48" s="69"/>
-      <c r="B48" s="139"/>
+      <c r="A48" s="210"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="22" t="s">
         <v>22</v>
       </c>
@@ -3984,9 +3962,9 @@
       <c r="M48" s="26"/>
       <c r="N48" s="26"/>
       <c r="O48" s="26"/>
-      <c r="P48" s="199"/>
-      <c r="Q48" s="200"/>
-      <c r="R48" s="65"/>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="80"/>
+      <c r="R48" s="226"/>
     </row>
     <row r="49" spans="1:18" ht="27" customHeight="1">
       <c r="A49" s="20" t="s">
@@ -3995,7 +3973,7 @@
       <c r="B49" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="26"/>
@@ -4010,18 +3988,18 @@
       <c r="M49" s="26"/>
       <c r="N49" s="26"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="199"/>
-      <c r="Q49" s="200"/>
-      <c r="R49" s="35"/>
+      <c r="P49" s="79"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="34"/>
     </row>
     <row r="50" spans="1:18" ht="27" customHeight="1">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="26"/>
@@ -4036,9 +4014,9 @@
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
       <c r="O50" s="26"/>
-      <c r="P50" s="199"/>
-      <c r="Q50" s="200"/>
-      <c r="R50" s="35"/>
+      <c r="P50" s="79"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="34"/>
     </row>
     <row r="51" spans="1:18" ht="27" customHeight="1">
       <c r="A51" s="20" t="s">
@@ -4047,7 +4025,7 @@
       <c r="B51" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="26"/>
@@ -4062,164 +4040,164 @@
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="199"/>
-      <c r="Q51" s="200"/>
-      <c r="R51" s="35"/>
+      <c r="P51" s="79"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="34"/>
     </row>
     <row r="52" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="84" t="s">
         <v>88</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="33">
         <v>1200</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="199"/>
-      <c r="Q52" s="200"/>
-      <c r="R52" s="64"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="79"/>
+      <c r="Q52" s="80"/>
+      <c r="R52" s="225"/>
     </row>
     <row r="53" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="33">
         <v>600</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="199"/>
-      <c r="Q53" s="200"/>
-      <c r="R53" s="65"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="79"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="226"/>
     </row>
     <row r="54" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A54" s="66" t="s">
+      <c r="A54" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="199"/>
-      <c r="Q54" s="200"/>
-      <c r="R54" s="64"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="79"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="225"/>
     </row>
     <row r="55" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A55" s="66"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="34" t="s">
+      <c r="A55" s="84"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="199"/>
-      <c r="Q55" s="200"/>
-      <c r="R55" s="65"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="79"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="226"/>
     </row>
     <row r="56" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="33">
         <v>1200</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="199"/>
-      <c r="Q56" s="200"/>
-      <c r="R56" s="64"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="79"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="225"/>
     </row>
     <row r="57" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A57" s="66"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="34">
+      <c r="A57" s="84"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="33">
         <v>600</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="199"/>
-      <c r="Q57" s="200"/>
-      <c r="R57" s="65"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="79"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="226"/>
     </row>
     <row r="58" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="67" t="s">
+      <c r="B58" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="26"/>
@@ -4234,38 +4212,38 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26"/>
-      <c r="P58" s="199"/>
-      <c r="Q58" s="200"/>
-      <c r="R58" s="64"/>
+      <c r="P58" s="79"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="225"/>
     </row>
     <row r="59" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="34" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="199"/>
-      <c r="Q59" s="200"/>
-      <c r="R59" s="65"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="226"/>
     </row>
     <row r="60" spans="1:18" s="15" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="A60" s="201" t="s">
+      <c r="A60" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="183"/>
-      <c r="C60" s="202"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="83"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4278,465 +4256,465 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="199"/>
-      <c r="Q60" s="200"/>
+      <c r="P60" s="79"/>
+      <c r="Q60" s="80"/>
       <c r="R60" s="25"/>
     </row>
     <row r="61" spans="1:18" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A61" s="214" t="s">
+      <c r="A61" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="215"/>
-      <c r="C61" s="215"/>
-      <c r="D61" s="215"/>
-      <c r="E61" s="215"/>
-      <c r="F61" s="215"/>
-      <c r="G61" s="215"/>
-      <c r="H61" s="215"/>
-      <c r="I61" s="215"/>
-      <c r="J61" s="215"/>
-      <c r="K61" s="215"/>
-      <c r="L61" s="215"/>
-      <c r="M61" s="215"/>
-      <c r="N61" s="215"/>
-      <c r="O61" s="215"/>
-      <c r="P61" s="215"/>
-      <c r="Q61" s="215"/>
-      <c r="R61" s="234"/>
-    </row>
-    <row r="62" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A62" s="216" t="s">
+      <c r="B61" s="223"/>
+      <c r="C61" s="223"/>
+      <c r="D61" s="223"/>
+      <c r="E61" s="223"/>
+      <c r="F61" s="223"/>
+      <c r="G61" s="223"/>
+      <c r="H61" s="223"/>
+      <c r="I61" s="223"/>
+      <c r="J61" s="223"/>
+      <c r="K61" s="223"/>
+      <c r="L61" s="223"/>
+      <c r="M61" s="223"/>
+      <c r="N61" s="223"/>
+      <c r="O61" s="223"/>
+      <c r="P61" s="223"/>
+      <c r="Q61" s="223"/>
+      <c r="R61" s="224"/>
+    </row>
+    <row r="62" spans="1:18" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A62" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="217" t="s">
+      <c r="B62" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="218" t="s">
+      <c r="D62" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="E62" s="221" t="s">
+      <c r="E62" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="217" t="s">
+      <c r="F62" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="G62" s="48" t="s">
+      <c r="G62" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="H62" s="226" t="s">
+      <c r="H62" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="I62" s="216" t="s">
+      <c r="I62" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="217" t="s">
+      <c r="J62" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="K62" s="48" t="s">
+      <c r="K62" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="L62" s="218" t="s">
+      <c r="L62" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="M62" s="221" t="s">
+      <c r="M62" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="N62" s="217" t="s">
+      <c r="N62" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="O62" s="48" t="s">
+      <c r="O62" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="P62" s="218" t="s">
+      <c r="P62" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="Q62" s="235"/>
-      <c r="R62" s="236"/>
-    </row>
-    <row r="63" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A63" s="51">
+      <c r="Q62" s="69"/>
+      <c r="R62" s="70"/>
+    </row>
+    <row r="63" spans="1:18" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A63" s="50">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="219"/>
-      <c r="E63" s="222">
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="227"/>
-      <c r="I63" s="38">
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="230"/>
-      <c r="M63" s="222">
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N63" s="42"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="219"/>
-      <c r="Q63" s="233"/>
-      <c r="R63" s="56"/>
-    </row>
-    <row r="64" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A64" s="38">
+      <c r="N63" s="41"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="72"/>
+    </row>
+    <row r="64" spans="1:18" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A64" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B64" s="42"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="219"/>
-      <c r="E64" s="222">
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F64" s="43"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="227"/>
-      <c r="I64" s="38">
+      <c r="F64" s="42"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="230"/>
-      <c r="M64" s="222">
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N64" s="42"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="219"/>
-      <c r="Q64" s="233"/>
-      <c r="R64" s="56"/>
-    </row>
-    <row r="65" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A65" s="39">
+      <c r="N64" s="41"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="72"/>
+    </row>
+    <row r="65" spans="1:18" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A65" s="38">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="225"/>
-      <c r="E65" s="223">
+      <c r="B65" s="43"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="59">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F65" s="43"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="228"/>
-      <c r="I65" s="39">
+      <c r="F65" s="42"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="38">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J65" s="42"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="230"/>
-      <c r="M65" s="222">
+      <c r="J65" s="41"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N65" s="44"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="219"/>
-      <c r="Q65" s="233"/>
-      <c r="R65" s="56"/>
-    </row>
-    <row r="66" spans="1:18" s="41" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A66" s="38">
+      <c r="N65" s="43"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="72"/>
+    </row>
+    <row r="66" spans="1:18" s="40" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A66" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="219"/>
-      <c r="E66" s="222">
+      <c r="B66" s="41"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="227"/>
-      <c r="I66" s="38">
+      <c r="F66" s="46"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="231"/>
-      <c r="M66" s="222">
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N66" s="42"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="219"/>
-      <c r="Q66" s="233"/>
-      <c r="R66" s="56"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="71"/>
+      <c r="R66" s="72"/>
     </row>
     <row r="67" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A67" s="38">
+      <c r="A67" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="219"/>
-      <c r="E67" s="222">
+      <c r="B67" s="41"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="227"/>
-      <c r="I67" s="38">
+      <c r="F67" s="46"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="231"/>
-      <c r="M67" s="222">
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="67"/>
+      <c r="M67" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N67" s="42"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="219"/>
-      <c r="Q67" s="233"/>
-      <c r="R67" s="56"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="72"/>
     </row>
     <row r="68" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A68" s="38">
+      <c r="A68" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B68" s="42"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="219"/>
-      <c r="E68" s="222">
+      <c r="B68" s="41"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="227"/>
-      <c r="I68" s="38">
+      <c r="F68" s="46"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="231"/>
-      <c r="M68" s="222">
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N68" s="42"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="219"/>
-      <c r="Q68" s="233"/>
-      <c r="R68" s="56"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="72"/>
     </row>
     <row r="69" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A69" s="38">
+      <c r="A69" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="219"/>
-      <c r="E69" s="222">
+      <c r="B69" s="41"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F69" s="47"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="227"/>
-      <c r="I69" s="38">
+      <c r="F69" s="46"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="231"/>
-      <c r="M69" s="222">
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N69" s="42"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="219"/>
-      <c r="Q69" s="233"/>
-      <c r="R69" s="56"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="72"/>
     </row>
     <row r="70" spans="1:18" ht="24.95" customHeight="1">
-      <c r="A70" s="38">
+      <c r="A70" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="219"/>
-      <c r="E70" s="222">
+      <c r="B70" s="41"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F70" s="47"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="227"/>
-      <c r="I70" s="38">
+      <c r="F70" s="46"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="231"/>
-      <c r="M70" s="222">
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N70" s="42"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="219"/>
-      <c r="Q70" s="233"/>
-      <c r="R70" s="56"/>
-    </row>
-    <row r="71" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A71" s="38">
+      <c r="N70" s="41"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="72"/>
+    </row>
+    <row r="71" spans="1:18" s="31" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A71" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B71" s="42"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="219"/>
-      <c r="E71" s="222">
+      <c r="B71" s="41"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F71" s="47"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="227"/>
-      <c r="I71" s="38">
+      <c r="F71" s="46"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="37">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="231"/>
-      <c r="M71" s="222">
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="58">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N71" s="42"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="219"/>
-      <c r="Q71" s="233"/>
-      <c r="R71" s="56"/>
-    </row>
-    <row r="72" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="A72" s="40">
+      <c r="N71" s="41"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="71"/>
+      <c r="R71" s="72"/>
+    </row>
+    <row r="72" spans="1:18" s="31" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A72" s="39">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="B72" s="45"/>
-      <c r="C72" s="46"/>
-      <c r="D72" s="220"/>
-      <c r="E72" s="224">
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="60">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="229"/>
-      <c r="I72" s="40">
+      <c r="F72" s="45"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="39">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="232"/>
-      <c r="M72" s="224">
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="60">
         <f>input!$C$3</f>
         <v>0</v>
       </c>
-      <c r="N72" s="45"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="220"/>
-      <c r="Q72" s="237"/>
-      <c r="R72" s="57"/>
-    </row>
-    <row r="73" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A73" s="49"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="49"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="74"/>
+    </row>
+    <row r="73" spans="1:18" s="31" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="48"/>
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
     </row>
-    <row r="74" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="49"/>
+    <row r="74" spans="1:18" s="31" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="48"/>
+      <c r="N74" s="48"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="48"/>
       <c r="Q74" s="12"/>
       <c r="R74" s="12"/>
     </row>
-    <row r="75" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="50"/>
-      <c r="P75" s="49"/>
+    <row r="75" spans="1:18" s="31" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="48"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="48"/>
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
     </row>
-    <row r="76" spans="1:18" s="32" customFormat="1" ht="24.95" customHeight="1">
+    <row r="76" spans="1:18" s="31" customFormat="1" ht="24.95" customHeight="1">
       <c r="A76" s="12"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -4978,7 +4956,257 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="292">
+  <mergeCells count="274">
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="K40:L43"/>
+    <mergeCell ref="A61:R61"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AD20:AE21"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="X20:Y21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="AA20:AB21"/>
+    <mergeCell ref="M25:R36"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:Q45"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:R44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="Q62:R72"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="P47:Q60"/>
@@ -5003,274 +5231,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:Q45"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:R44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="A24:R24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M25:R36"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AD20:AE21"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="X20:Y21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="AA20:AB21"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A61:R61"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5290,104 +5250,104 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="36"/>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="36"/>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="36"/>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="36"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="37"/>
+      <c r="C15" s="36"/>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
